--- a/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
+++ b/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d79da97edd0525e/Bureau/Master BEE MNHN/Stage M1 Ecoacoustique/Données/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d79da97edd0525e/Bureau/Ecoacoustic project internship/Acoustic-communities-process-internship/Temporal_distance_measures_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="125" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C7BA4629-DD3E-4438-B7C7-D2774E5BFF55}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D22F2F6C-EF8D-44E2-9B6E-9EAAE45981D3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mesures_soundtypes" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="622" uniqueCount="612">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="626">
   <si>
     <t>duration</t>
   </si>
@@ -1869,13 +1869,55 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>pace difficult to determinate</t>
+  </si>
+  <si>
+    <t>not sure for pace because duration noted as long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lower freq and pace hard </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pace hard </t>
+  </si>
+  <si>
+    <t>pace hard</t>
+  </si>
+  <si>
+    <t>can't see the signal</t>
+  </si>
+  <si>
+    <t>duration longer than unit duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all 24 from the same subsample ? </t>
+  </si>
+  <si>
+    <t>duration longer than unit</t>
+  </si>
+  <si>
+    <t>8 supposed to be composed pulse but here no</t>
+  </si>
+  <si>
+    <t>doesn't look like the other 29</t>
+  </si>
+  <si>
+    <t>Potential_category</t>
+  </si>
+  <si>
+    <t>Start to remeasure duration and dom_freq</t>
+  </si>
+  <si>
+    <t>Check again duration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2006,6 +2048,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2733,18 +2781,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I610"/>
+  <dimension ref="A1:J610"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E180" sqref="E180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
+    <col min="9" max="9" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>610</v>
       </c>
@@ -2770,10 +2819,13 @@
         <v>1</v>
       </c>
       <c r="I1" t="s">
+        <v>623</v>
+      </c>
+      <c r="J1" t="s">
         <v>606</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2797,7 +2849,7 @@
         <v>3.5885167464114835</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -2821,7 +2873,7 @@
         <v>4.0128410914927768</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2845,7 +2897,7 @@
         <v>4.0032025620496396</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2869,7 +2921,7 @@
         <v>4.4987146529562985</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
@@ -2893,7 +2945,7 @@
         <v>4.7846889952153111</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
@@ -2917,7 +2969,7 @@
         <v>4.057971014492753</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
@@ -2940,7 +2992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
@@ -2963,7 +3015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
@@ -2986,7 +3038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
@@ -3009,7 +3061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
@@ -3032,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -3055,7 +3107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -3078,7 +3130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
@@ -3102,7 +3154,7 @@
         <v>15.037593984962406</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
@@ -3449,7 +3501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
@@ -3472,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
@@ -3496,7 +3548,7 @@
         <v>2.9019152640742889</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
@@ -3519,7 +3571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
@@ -3542,7 +3594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
@@ -3566,7 +3618,7 @@
         <v>1.3609145345672291</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
@@ -3589,7 +3641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
@@ -3612,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
@@ -3625,11 +3677,11 @@
       <c r="D40">
         <v>98</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>602</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
@@ -3652,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
@@ -3676,7 +3728,7 @@
         <v>2.6455026455026456</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
@@ -3699,7 +3751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9</v>
       </c>
@@ -3722,11 +3774,11 @@
         <f>7/1</f>
         <v>7</v>
       </c>
-      <c r="I44" t="s">
+      <c r="J44" t="s">
         <v>603</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
@@ -3749,11 +3801,11 @@
         <f>4/1</f>
         <v>4</v>
       </c>
-      <c r="I45" t="s">
+      <c r="J45" t="s">
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
@@ -3777,7 +3829,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
@@ -3800,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9</v>
       </c>
@@ -4202,7 +4254,7 @@
         <v>1.7618927762396175</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
@@ -4224,11 +4276,11 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>605</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
@@ -4252,7 +4304,7 @@
         <v>20.97902097902098</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
@@ -4276,7 +4328,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>15</v>
       </c>
@@ -4289,8 +4341,17 @@
       <c r="D68">
         <v>3457</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E68">
+        <v>3262</v>
+      </c>
+      <c r="F68">
+        <v>3707</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>15</v>
       </c>
@@ -4303,8 +4364,20 @@
       <c r="D69">
         <v>7982</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E69">
+        <v>6220</v>
+      </c>
+      <c r="F69">
+        <v>10068</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="J69" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15</v>
       </c>
@@ -4317,8 +4390,17 @@
       <c r="D70">
         <v>6437</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E70">
+        <v>6165</v>
+      </c>
+      <c r="F70">
+        <v>8437</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>15</v>
       </c>
@@ -4331,8 +4413,17 @@
       <c r="D71">
         <v>3636</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E71">
+        <v>3520</v>
+      </c>
+      <c r="F71">
+        <v>5411</v>
+      </c>
+      <c r="G71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>15</v>
       </c>
@@ -4345,8 +4436,18 @@
       <c r="D72">
         <v>9324</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E72">
+        <v>8981</v>
+      </c>
+      <c r="F72">
+        <v>10344</v>
+      </c>
+      <c r="G72">
+        <f>3/2.393</f>
+        <v>1.2536564981195153</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>15</v>
       </c>
@@ -4359,8 +4460,17 @@
       <c r="D73">
         <v>8201</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E73">
+        <v>6525</v>
+      </c>
+      <c r="F73">
+        <v>10183</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>16</v>
       </c>
@@ -4373,8 +4483,18 @@
       <c r="D74">
         <v>6937</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E74">
+        <v>6416</v>
+      </c>
+      <c r="F74">
+        <v>9544</v>
+      </c>
+      <c r="G74">
+        <f>16/1.412</f>
+        <v>11.3314447592068</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>16</v>
       </c>
@@ -4387,8 +4507,21 @@
       <c r="D75">
         <v>7997</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E75">
+        <v>6285</v>
+      </c>
+      <c r="F75">
+        <v>9050</v>
+      </c>
+      <c r="G75">
+        <f>10/0.846</f>
+        <v>11.82033096926714</v>
+      </c>
+      <c r="J75" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>16</v>
       </c>
@@ -4401,8 +4534,18 @@
       <c r="D76">
         <v>8982</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E76">
+        <v>8772</v>
+      </c>
+      <c r="F76">
+        <v>9973</v>
+      </c>
+      <c r="G76">
+        <f>5/1.747</f>
+        <v>2.8620492272467084</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
@@ -4415,8 +4558,18 @@
       <c r="D77">
         <v>10553</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E77">
+        <v>7910</v>
+      </c>
+      <c r="F77">
+        <v>18634</v>
+      </c>
+      <c r="G77">
+        <f>10/0.463</f>
+        <v>21.598272138228939</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
@@ -4429,8 +4582,18 @@
       <c r="D78">
         <v>2594</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E78">
+        <v>643</v>
+      </c>
+      <c r="F78">
+        <v>5608</v>
+      </c>
+      <c r="G78">
+        <f>13/1.585</f>
+        <v>8.2018927444794958</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>16</v>
       </c>
@@ -4443,8 +4606,18 @@
       <c r="D79">
         <v>8100</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="E79">
+        <v>7150</v>
+      </c>
+      <c r="F79">
+        <v>9516</v>
+      </c>
+      <c r="G79">
+        <f>8/0.265</f>
+        <v>30.188679245283016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>17</v>
       </c>
@@ -4457,8 +4630,18 @@
       <c r="D80">
         <v>13491</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E80">
+        <v>12632</v>
+      </c>
+      <c r="F80">
+        <v>16619</v>
+      </c>
+      <c r="G80">
+        <f>10/0.693</f>
+        <v>14.430014430014431</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>17</v>
       </c>
@@ -4471,8 +4654,21 @@
       <c r="D81">
         <v>15231</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E81">
+        <v>11900</v>
+      </c>
+      <c r="F81">
+        <v>19785</v>
+      </c>
+      <c r="G81">
+        <f>4/0.334</f>
+        <v>11.976047904191615</v>
+      </c>
+      <c r="J81" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>17</v>
       </c>
@@ -4485,8 +4681,20 @@
       <c r="D82">
         <v>8988</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E82">
+        <v>8770</v>
+      </c>
+      <c r="F82">
+        <v>10000</v>
+      </c>
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="J82" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>17</v>
       </c>
@@ -4499,8 +4707,17 @@
       <c r="D83">
         <v>13284</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E83">
+        <v>10950</v>
+      </c>
+      <c r="F83">
+        <v>14100</v>
+      </c>
+      <c r="G83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>17</v>
       </c>
@@ -4513,8 +4730,18 @@
       <c r="D84">
         <v>14353</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E84">
+        <v>12030</v>
+      </c>
+      <c r="F84">
+        <v>15265</v>
+      </c>
+      <c r="G84">
+        <f>6/0.192</f>
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>17</v>
       </c>
@@ -4527,8 +4754,17 @@
       <c r="D85">
         <v>7035</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E85">
+        <v>6764</v>
+      </c>
+      <c r="F85">
+        <v>7934</v>
+      </c>
+      <c r="G85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>18</v>
       </c>
@@ -4541,8 +4777,18 @@
       <c r="D86">
         <v>1468</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E86">
+        <v>386</v>
+      </c>
+      <c r="F86">
+        <v>14676</v>
+      </c>
+      <c r="G86">
+        <f>4/0.17</f>
+        <v>23.52941176470588</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>19</v>
       </c>
@@ -4555,8 +4801,17 @@
       <c r="D87">
         <v>2712</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E87">
+        <v>2178</v>
+      </c>
+      <c r="F87">
+        <v>2862</v>
+      </c>
+      <c r="G87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>19</v>
       </c>
@@ -4569,8 +4824,18 @@
       <c r="D88">
         <v>951</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E88">
+        <v>138</v>
+      </c>
+      <c r="F88">
+        <v>5367</v>
+      </c>
+      <c r="G88">
+        <f>10/0.472</f>
+        <v>21.186440677966104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>19</v>
       </c>
@@ -4583,8 +4848,18 @@
       <c r="D89">
         <v>1877</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E89">
+        <v>265</v>
+      </c>
+      <c r="F89">
+        <v>2779</v>
+      </c>
+      <c r="G89">
+        <f>7/0.495</f>
+        <v>14.141414141414142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>19</v>
       </c>
@@ -4597,8 +4872,20 @@
       <c r="D90">
         <v>4245</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E90">
+        <v>3510</v>
+      </c>
+      <c r="F90">
+        <v>7274</v>
+      </c>
+      <c r="G90">
+        <v>0</v>
+      </c>
+      <c r="J90" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>19</v>
       </c>
@@ -4611,8 +4898,17 @@
       <c r="D91">
         <v>2285</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E91">
+        <v>873</v>
+      </c>
+      <c r="F91">
+        <v>3939</v>
+      </c>
+      <c r="G91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>19</v>
       </c>
@@ -4625,8 +4921,18 @@
       <c r="D92">
         <v>1354</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E92">
+        <v>110</v>
+      </c>
+      <c r="F92">
+        <v>10401</v>
+      </c>
+      <c r="G92">
+        <f>8/0.304</f>
+        <v>26.315789473684212</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>20</v>
       </c>
@@ -4639,8 +4945,18 @@
       <c r="D93">
         <v>13682</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E93">
+        <v>819</v>
+      </c>
+      <c r="F93">
+        <v>16144</v>
+      </c>
+      <c r="G93">
+        <f>5/0.276</f>
+        <v>18.115942028985504</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>21</v>
       </c>
@@ -4653,8 +4969,18 @@
       <c r="D94">
         <v>355</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E94">
+        <v>187</v>
+      </c>
+      <c r="F94">
+        <v>570</v>
+      </c>
+      <c r="G94">
+        <f>2/1.853</f>
+        <v>1.0793308148947653</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>21</v>
       </c>
@@ -4667,8 +4993,11 @@
       <c r="D95">
         <v>375</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="J95" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>21</v>
       </c>
@@ -4681,8 +5010,18 @@
       <c r="D96">
         <v>2702</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E96">
+        <v>270</v>
+      </c>
+      <c r="F96">
+        <v>7862</v>
+      </c>
+      <c r="G96">
+        <f>9/0.417</f>
+        <v>21.582733812949641</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>21</v>
       </c>
@@ -4695,8 +5034,18 @@
       <c r="D97">
         <v>5541</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>10474</v>
+      </c>
+      <c r="G97">
+        <f>10/0.6</f>
+        <v>16.666666666666668</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>21</v>
       </c>
@@ -4709,8 +5058,17 @@
       <c r="D98">
         <v>131</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E98">
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <v>720</v>
+      </c>
+      <c r="G98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>21</v>
       </c>
@@ -4723,8 +5081,17 @@
       <c r="D99">
         <v>208</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>4929</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>22</v>
       </c>
@@ -4737,8 +5104,18 @@
       <c r="D100">
         <v>2381</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E100">
+        <v>1188</v>
+      </c>
+      <c r="F100">
+        <v>22050</v>
+      </c>
+      <c r="G100">
+        <f>7/3.389</f>
+        <v>2.0655060489820007</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>22</v>
       </c>
@@ -4751,8 +5128,18 @@
       <c r="D101">
         <v>3543</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E101">
+        <v>2942</v>
+      </c>
+      <c r="F101">
+        <v>3961</v>
+      </c>
+      <c r="G101">
+        <f>4/0.29</f>
+        <v>13.793103448275863</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>22</v>
       </c>
@@ -4765,8 +5152,18 @@
       <c r="D102">
         <v>10942</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E102">
+        <v>1679</v>
+      </c>
+      <c r="F102">
+        <v>22050</v>
+      </c>
+      <c r="G102">
+        <f>4/1.427</f>
+        <v>2.8030833917309037</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>22</v>
       </c>
@@ -4779,8 +5176,21 @@
       <c r="D103">
         <v>904</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E103">
+        <v>88</v>
+      </c>
+      <c r="F103">
+        <v>10034</v>
+      </c>
+      <c r="G103">
+        <f>7/0.303</f>
+        <v>23.102310231023104</v>
+      </c>
+      <c r="J103" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>22</v>
       </c>
@@ -4793,8 +5203,18 @@
       <c r="D104">
         <v>3918</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E104">
+        <v>3374</v>
+      </c>
+      <c r="F104">
+        <v>15244</v>
+      </c>
+      <c r="G104">
+        <f>4/0.19</f>
+        <v>21.05263157894737</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>22</v>
       </c>
@@ -4807,8 +5227,18 @@
       <c r="D105">
         <v>5271</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E105">
+        <v>240</v>
+      </c>
+      <c r="F105">
+        <v>15117</v>
+      </c>
+      <c r="G105">
+        <f>3/2.811</f>
+        <v>1.0672358591248665</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>23</v>
       </c>
@@ -4821,8 +5251,18 @@
       <c r="D106">
         <v>383</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E106">
+        <v>0</v>
+      </c>
+      <c r="F106">
+        <v>944</v>
+      </c>
+      <c r="G106">
+        <f>4/0.165</f>
+        <v>24.242424242424242</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>23</v>
       </c>
@@ -4835,8 +5275,18 @@
       <c r="D107">
         <v>1080</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E107">
+        <v>526</v>
+      </c>
+      <c r="F107">
+        <v>4222</v>
+      </c>
+      <c r="G107">
+        <f>5/0.238</f>
+        <v>21.008403361344538</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>23</v>
       </c>
@@ -4849,8 +5299,18 @@
       <c r="D108">
         <v>1878</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E108">
+        <v>1527</v>
+      </c>
+      <c r="F108">
+        <v>2763</v>
+      </c>
+      <c r="G108">
+        <f>2/0.77</f>
+        <v>2.5974025974025974</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>23</v>
       </c>
@@ -4863,8 +5323,18 @@
       <c r="D109">
         <v>1704</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E109">
+        <v>1438</v>
+      </c>
+      <c r="F109">
+        <v>2742</v>
+      </c>
+      <c r="G109">
+        <f>2/1.362</f>
+        <v>1.4684287812041115</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>23</v>
       </c>
@@ -4877,8 +5347,17 @@
       <c r="D110">
         <v>1316</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E110">
+        <v>1178</v>
+      </c>
+      <c r="F110">
+        <v>3514</v>
+      </c>
+      <c r="G110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>23</v>
       </c>
@@ -4891,8 +5370,17 @@
       <c r="D111">
         <v>1210</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E111">
+        <v>533</v>
+      </c>
+      <c r="F111">
+        <v>1274</v>
+      </c>
+      <c r="G111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24</v>
       </c>
@@ -4905,8 +5393,21 @@
       <c r="D112">
         <v>13156</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E112">
+        <v>10647</v>
+      </c>
+      <c r="F112">
+        <v>22050</v>
+      </c>
+      <c r="G112">
+        <f>12/1.802</f>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J112" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24</v>
       </c>
@@ -4919,8 +5420,21 @@
       <c r="D113">
         <v>13060</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E113">
+        <v>10647</v>
+      </c>
+      <c r="F113">
+        <v>22050</v>
+      </c>
+      <c r="G113">
+        <f t="shared" ref="G113:G117" si="0">12/1.802</f>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J113" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24</v>
       </c>
@@ -4933,8 +5447,21 @@
       <c r="D114">
         <v>12762</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E114">
+        <v>10647</v>
+      </c>
+      <c r="F114">
+        <v>22050</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="0"/>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J114" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24</v>
       </c>
@@ -4947,8 +5474,21 @@
       <c r="D115">
         <v>13309</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E115">
+        <v>10647</v>
+      </c>
+      <c r="F115">
+        <v>22050</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="0"/>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J115" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24</v>
       </c>
@@ -4961,8 +5501,21 @@
       <c r="D116">
         <v>13506</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E116">
+        <v>10647</v>
+      </c>
+      <c r="F116">
+        <v>22050</v>
+      </c>
+      <c r="G116">
+        <f t="shared" si="0"/>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J116" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24</v>
       </c>
@@ -4975,8 +5528,21 @@
       <c r="D117">
         <v>13328</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E117">
+        <v>10647</v>
+      </c>
+      <c r="F117">
+        <v>22050</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="0"/>
+        <v>6.6592674805771361</v>
+      </c>
+      <c r="J117" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>25</v>
       </c>
@@ -4989,8 +5555,18 @@
       <c r="D118">
         <v>8796</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E118">
+        <v>4524</v>
+      </c>
+      <c r="F118">
+        <v>11464</v>
+      </c>
+      <c r="G118">
+        <f>2/0.062</f>
+        <v>32.258064516129032</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>25</v>
       </c>
@@ -5003,8 +5579,18 @@
       <c r="D119">
         <v>13997</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E119">
+        <v>621</v>
+      </c>
+      <c r="F119">
+        <v>17922</v>
+      </c>
+      <c r="G119">
+        <f>3/0.211</f>
+        <v>14.218009478672986</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>25</v>
       </c>
@@ -5017,8 +5603,17 @@
       <c r="D120">
         <v>15685</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E120">
+        <v>8042</v>
+      </c>
+      <c r="F120">
+        <v>19574</v>
+      </c>
+      <c r="G120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>25</v>
       </c>
@@ -5031,8 +5626,17 @@
       <c r="D121">
         <v>11280</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E121">
+        <v>1968</v>
+      </c>
+      <c r="F121">
+        <v>12235</v>
+      </c>
+      <c r="G121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>25</v>
       </c>
@@ -5045,8 +5649,17 @@
       <c r="D122">
         <v>8389</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E122">
+        <v>5779</v>
+      </c>
+      <c r="F122">
+        <v>13900</v>
+      </c>
+      <c r="G122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>25</v>
       </c>
@@ -5059,8 +5672,17 @@
       <c r="D123">
         <v>14528</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E123">
+        <v>0</v>
+      </c>
+      <c r="F123">
+        <v>15401</v>
+      </c>
+      <c r="G123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>26</v>
       </c>
@@ -5073,8 +5695,18 @@
       <c r="D124">
         <v>4703</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E124">
+        <v>143</v>
+      </c>
+      <c r="F124">
+        <v>22050</v>
+      </c>
+      <c r="G124">
+        <f>4/0.279</f>
+        <v>14.336917562724013</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>26</v>
       </c>
@@ -5087,8 +5719,18 @@
       <c r="D125">
         <v>2027</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E125">
+        <v>81</v>
+      </c>
+      <c r="F125">
+        <v>4235</v>
+      </c>
+      <c r="G125">
+        <f>10/1.087</f>
+        <v>9.1996320147194108</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>26</v>
       </c>
@@ -5101,8 +5743,18 @@
       <c r="D126">
         <v>1605</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E126">
+        <v>60</v>
+      </c>
+      <c r="F126">
+        <v>5817</v>
+      </c>
+      <c r="G126">
+        <f>4/0.389</f>
+        <v>10.282776349614396</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>27</v>
       </c>
@@ -5115,8 +5767,21 @@
       <c r="D127">
         <v>9359</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E127">
+        <v>7719</v>
+      </c>
+      <c r="F127">
+        <v>11286</v>
+      </c>
+      <c r="G127">
+        <f>6/0.175</f>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="J127" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>27</v>
       </c>
@@ -5129,8 +5794,20 @@
       <c r="D128">
         <v>9372</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E128">
+        <v>7588</v>
+      </c>
+      <c r="F128">
+        <v>12081</v>
+      </c>
+      <c r="G128">
+        <v>0</v>
+      </c>
+      <c r="J128" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>27</v>
       </c>
@@ -5143,8 +5820,18 @@
       <c r="D129">
         <v>10392</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E129">
+        <v>7671</v>
+      </c>
+      <c r="F129">
+        <v>11386</v>
+      </c>
+      <c r="G129">
+        <f>7/0.227</f>
+        <v>30.837004405286343</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>27</v>
       </c>
@@ -5157,8 +5844,18 @@
       <c r="D130">
         <v>10392</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E130">
+        <v>8560</v>
+      </c>
+      <c r="F130">
+        <v>11397</v>
+      </c>
+      <c r="G130">
+        <f>8/0.25</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>27</v>
       </c>
@@ -5171,8 +5868,18 @@
       <c r="D131">
         <v>8433</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E131">
+        <v>6794</v>
+      </c>
+      <c r="F131">
+        <v>10047</v>
+      </c>
+      <c r="G131">
+        <f>9/0.33</f>
+        <v>27.27272727272727</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>27</v>
       </c>
@@ -5185,8 +5892,18 @@
       <c r="D132">
         <v>9596</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E132">
+        <v>7358</v>
+      </c>
+      <c r="F132">
+        <v>10936</v>
+      </c>
+      <c r="G132">
+        <f>11/0.25</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>28</v>
       </c>
@@ -5199,8 +5916,20 @@
       <c r="D133">
         <v>9049</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E133">
+        <v>3155</v>
+      </c>
+      <c r="F133">
+        <v>19867</v>
+      </c>
+      <c r="G133">
+        <v>0</v>
+      </c>
+      <c r="J133" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>28</v>
       </c>
@@ -5213,8 +5942,20 @@
       <c r="D134">
         <v>9011</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E134">
+        <v>4332</v>
+      </c>
+      <c r="F134">
+        <v>19498</v>
+      </c>
+      <c r="G134">
+        <v>0</v>
+      </c>
+      <c r="J134" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>28</v>
       </c>
@@ -5227,8 +5968,20 @@
       <c r="D135">
         <v>9076</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E135">
+        <v>3924</v>
+      </c>
+      <c r="F135">
+        <v>19771</v>
+      </c>
+      <c r="G135">
+        <v>0</v>
+      </c>
+      <c r="J135" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>28</v>
       </c>
@@ -5241,8 +5994,20 @@
       <c r="D136">
         <v>9062</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E136">
+        <v>3087</v>
+      </c>
+      <c r="F136">
+        <v>19868</v>
+      </c>
+      <c r="G136">
+        <v>0</v>
+      </c>
+      <c r="J136" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>29</v>
       </c>
@@ -5255,8 +6020,18 @@
       <c r="D137">
         <v>3463</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E137">
+        <v>521</v>
+      </c>
+      <c r="F137">
+        <v>8902</v>
+      </c>
+      <c r="G137">
+        <f>6/3.478</f>
+        <v>1.7251293847038527</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>29</v>
       </c>
@@ -5269,8 +6044,18 @@
       <c r="D138">
         <v>2415</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E138">
+        <v>1723</v>
+      </c>
+      <c r="F138">
+        <v>6539</v>
+      </c>
+      <c r="G138">
+        <f>5/0.129</f>
+        <v>38.759689922480618</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>29</v>
       </c>
@@ -5283,8 +6068,18 @@
       <c r="D139">
         <v>3294</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E139">
+        <v>2558</v>
+      </c>
+      <c r="F139">
+        <v>9946</v>
+      </c>
+      <c r="G139">
+        <f>9/0.2</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>29</v>
       </c>
@@ -5297,8 +6092,18 @@
       <c r="D140">
         <v>7999</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E140">
+        <v>1911</v>
+      </c>
+      <c r="F140">
+        <v>10026</v>
+      </c>
+      <c r="G140">
+        <f>5/0.122</f>
+        <v>40.983606557377051</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>29</v>
       </c>
@@ -5311,8 +6116,18 @@
       <c r="D141">
         <v>5557</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E141">
+        <v>287</v>
+      </c>
+      <c r="F141">
+        <v>10023</v>
+      </c>
+      <c r="G141">
+        <f>7/0.28</f>
+        <v>24.999999999999996</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>29</v>
       </c>
@@ -5325,8 +6140,20 @@
       <c r="D142">
         <v>5668</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E142">
+        <v>3441</v>
+      </c>
+      <c r="F142">
+        <v>9404</v>
+      </c>
+      <c r="G142">
+        <v>0</v>
+      </c>
+      <c r="J142" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>30</v>
       </c>
@@ -5339,8 +6166,18 @@
       <c r="D143">
         <v>9150</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E143">
+        <v>3932</v>
+      </c>
+      <c r="F143">
+        <v>9551</v>
+      </c>
+      <c r="G143">
+        <f>2/0.038</f>
+        <v>52.631578947368425</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>30</v>
       </c>
@@ -5353,8 +6190,18 @@
       <c r="D144">
         <v>9223</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E144">
+        <v>3901</v>
+      </c>
+      <c r="F144">
+        <v>9551</v>
+      </c>
+      <c r="G144">
+        <f>2/0.049</f>
+        <v>40.816326530612244</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>30</v>
       </c>
@@ -5367,8 +6214,18 @@
       <c r="D145">
         <v>9015</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E145">
+        <v>3823</v>
+      </c>
+      <c r="F145">
+        <v>9546</v>
+      </c>
+      <c r="G145">
+        <f>2/0.043</f>
+        <v>46.511627906976749</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>31</v>
       </c>
@@ -5381,8 +6238,18 @@
       <c r="D146">
         <v>3449</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E146">
+        <v>2612</v>
+      </c>
+      <c r="F146">
+        <v>4876</v>
+      </c>
+      <c r="G146">
+        <f>4/1.545</f>
+        <v>2.5889967637540456</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>31</v>
       </c>
@@ -5395,8 +6262,18 @@
       <c r="D147">
         <v>3335</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E147">
+        <v>2378</v>
+      </c>
+      <c r="F147">
+        <v>4465</v>
+      </c>
+      <c r="G147">
+        <f>5/1.502</f>
+        <v>3.3288948069241013</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>31</v>
       </c>
@@ -5409,8 +6286,18 @@
       <c r="D148">
         <v>3402</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E148">
+        <v>2571</v>
+      </c>
+      <c r="F148">
+        <v>4329</v>
+      </c>
+      <c r="G148">
+        <f>5/1.746</f>
+        <v>2.86368843069874</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>31</v>
       </c>
@@ -5423,8 +6310,18 @@
       <c r="D149">
         <v>3262</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E149">
+        <v>2901</v>
+      </c>
+      <c r="F149">
+        <v>3656</v>
+      </c>
+      <c r="G149">
+        <f>4/1.634</f>
+        <v>2.4479804161566707</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>31</v>
       </c>
@@ -5437,8 +6334,18 @@
       <c r="D150">
         <v>3423</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E150">
+        <v>2288</v>
+      </c>
+      <c r="F150">
+        <v>4785</v>
+      </c>
+      <c r="G150">
+        <f>4/1.416</f>
+        <v>2.8248587570621471</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>31</v>
       </c>
@@ -5451,8 +6358,18 @@
       <c r="D151">
         <v>4081</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E151">
+        <v>2212</v>
+      </c>
+      <c r="F151">
+        <v>4627</v>
+      </c>
+      <c r="G151">
+        <f>3/1.114</f>
+        <v>2.6929982046678633</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>32</v>
       </c>
@@ -5465,8 +6382,17 @@
       <c r="D152">
         <v>15302</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E152">
+        <v>5584</v>
+      </c>
+      <c r="F152">
+        <v>21474</v>
+      </c>
+      <c r="G152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>32</v>
       </c>
@@ -5479,8 +6405,17 @@
       <c r="D153">
         <v>15053</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E153">
+        <v>2432</v>
+      </c>
+      <c r="F153">
+        <v>16540</v>
+      </c>
+      <c r="G153">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>33</v>
       </c>
@@ -5493,8 +6428,18 @@
       <c r="D154">
         <v>15128</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E154">
+        <v>12355</v>
+      </c>
+      <c r="F154">
+        <v>15843</v>
+      </c>
+      <c r="G154">
+        <f>2/0.304</f>
+        <v>6.5789473684210531</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>33</v>
       </c>
@@ -5507,8 +6452,17 @@
       <c r="D155">
         <v>8931</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E155">
+        <v>7595</v>
+      </c>
+      <c r="F155">
+        <v>9878</v>
+      </c>
+      <c r="G155">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33</v>
       </c>
@@ -5521,8 +6475,18 @@
       <c r="D156">
         <v>7934</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E156">
+        <v>7843</v>
+      </c>
+      <c r="F156">
+        <v>15450</v>
+      </c>
+      <c r="G156">
+        <f>3/5.275</f>
+        <v>0.56872037914691942</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>33</v>
       </c>
@@ -5535,8 +6499,18 @@
       <c r="D157">
         <v>9949</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E157">
+        <v>9285</v>
+      </c>
+      <c r="F157">
+        <v>17760</v>
+      </c>
+      <c r="G157">
+        <f>5/7.453</f>
+        <v>0.67087079028579089</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33</v>
       </c>
@@ -5549,8 +6523,18 @@
       <c r="D158">
         <v>11247</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E158">
+        <v>6397</v>
+      </c>
+      <c r="F158">
+        <v>16641</v>
+      </c>
+      <c r="G158">
+        <f>7/7.34</f>
+        <v>0.9536784741144414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>33</v>
       </c>
@@ -5563,8 +6547,17 @@
       <c r="D159">
         <v>5443</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E159">
+        <v>3633</v>
+      </c>
+      <c r="F159">
+        <v>7071</v>
+      </c>
+      <c r="G159">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34</v>
       </c>
@@ -5575,10 +6568,26 @@
         <v>0.54900000000000004</v>
       </c>
       <c r="D160">
-        <v>5360</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5446</v>
+      </c>
+      <c r="E160">
+        <v>4733</v>
+      </c>
+      <c r="F160">
+        <v>7756</v>
+      </c>
+      <c r="G160">
+        <f>2/1.358</f>
+        <v>1.4727540500736376</v>
+      </c>
+      <c r="I160">
+        <v>5</v>
+      </c>
+      <c r="J160" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>34</v>
       </c>
@@ -5586,13 +6595,26 @@
         <v>154</v>
       </c>
       <c r="C161">
-        <v>1.921</v>
+        <v>0.1</v>
       </c>
       <c r="D161">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9994</v>
+      </c>
+      <c r="E161">
+        <v>8823</v>
+      </c>
+      <c r="F161">
+        <v>13982</v>
+      </c>
+      <c r="G161">
+        <f>2/0.222</f>
+        <v>9.0090090090090094</v>
+      </c>
+      <c r="I161">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>34</v>
       </c>
@@ -5600,13 +6622,26 @@
         <v>155</v>
       </c>
       <c r="C162">
-        <v>1.296</v>
+        <v>0.106</v>
       </c>
       <c r="D162">
-        <v>6840</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7016</v>
+      </c>
+      <c r="E162">
+        <v>6547</v>
+      </c>
+      <c r="F162">
+        <v>8826</v>
+      </c>
+      <c r="G162">
+        <f>3/0.319</f>
+        <v>9.4043887147335425</v>
+      </c>
+      <c r="I162">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>34</v>
       </c>
@@ -5614,13 +6649,25 @@
         <v>156</v>
       </c>
       <c r="C163">
-        <v>0.23799999999999999</v>
+        <v>0.151</v>
       </c>
       <c r="D163">
         <v>9228</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E163">
+        <v>8356</v>
+      </c>
+      <c r="F163">
+        <v>11246</v>
+      </c>
+      <c r="G163">
+        <v>0</v>
+      </c>
+      <c r="I163">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>34</v>
       </c>
@@ -5628,13 +6675,26 @@
         <v>157</v>
       </c>
       <c r="C164">
-        <v>1.028</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="D164">
-        <v>10144</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10162</v>
+      </c>
+      <c r="E164">
+        <v>9412</v>
+      </c>
+      <c r="F164">
+        <v>12838</v>
+      </c>
+      <c r="G164">
+        <f>3/6.881</f>
+        <v>0.43598314198517657</v>
+      </c>
+      <c r="I164">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>34</v>
       </c>
@@ -5645,10 +6705,22 @@
         <v>0.82899999999999996</v>
       </c>
       <c r="D165">
-        <v>9580</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9675</v>
+      </c>
+      <c r="E165">
+        <v>6836</v>
+      </c>
+      <c r="F165">
+        <v>12088</v>
+      </c>
+      <c r="G165">
+        <v>0</v>
+      </c>
+      <c r="I165">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>35</v>
       </c>
@@ -5656,13 +6728,29 @@
         <v>159</v>
       </c>
       <c r="C166">
-        <v>6.5000000000000002E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D166">
-        <v>6773</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3167</v>
+      </c>
+      <c r="E166">
+        <v>525</v>
+      </c>
+      <c r="F166">
+        <v>8876</v>
+      </c>
+      <c r="G166">
+        <f>7/0.276</f>
+        <v>25.362318840579707</v>
+      </c>
+      <c r="I166">
+        <v>4</v>
+      </c>
+      <c r="J166" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>35</v>
       </c>
@@ -5670,13 +6758,26 @@
         <v>160</v>
       </c>
       <c r="C167">
-        <v>7.4999999999999997E-2</v>
+        <v>3.4000000000000002E-2</v>
       </c>
       <c r="D167">
-        <v>8935</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5112</v>
+      </c>
+      <c r="E167">
+        <v>1011</v>
+      </c>
+      <c r="F167">
+        <v>13288</v>
+      </c>
+      <c r="G167">
+        <f>8/0.317</f>
+        <v>25.236593059936908</v>
+      </c>
+      <c r="I167">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>35</v>
       </c>
@@ -5684,13 +6785,25 @@
         <v>161</v>
       </c>
       <c r="C168">
-        <v>0.05</v>
+        <v>9.1999999999999998E-2</v>
       </c>
       <c r="D168">
         <v>6351</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E168">
+        <v>3774</v>
+      </c>
+      <c r="F168">
+        <v>8509</v>
+      </c>
+      <c r="G168">
+        <v>0</v>
+      </c>
+      <c r="I168">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>35</v>
       </c>
@@ -5698,13 +6811,25 @@
         <v>162</v>
       </c>
       <c r="C169">
-        <v>0.14099999999999999</v>
+        <v>0.155</v>
       </c>
       <c r="D169">
-        <v>11885</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11906</v>
+      </c>
+      <c r="E169">
+        <v>7348</v>
+      </c>
+      <c r="F169">
+        <v>16613</v>
+      </c>
+      <c r="G169">
+        <v>0</v>
+      </c>
+      <c r="I169">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>35</v>
       </c>
@@ -5712,13 +6837,25 @@
         <v>163</v>
       </c>
       <c r="C170">
-        <v>2.5999999999999999E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="D170">
-        <v>5610</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5587</v>
+      </c>
+      <c r="E170">
+        <v>4810</v>
+      </c>
+      <c r="F170">
+        <v>8413</v>
+      </c>
+      <c r="G170">
+        <v>0</v>
+      </c>
+      <c r="I170">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>35</v>
       </c>
@@ -5726,13 +6863,26 @@
         <v>164</v>
       </c>
       <c r="C171">
-        <v>5.8999999999999997E-2</v>
+        <v>2.5999999999999999E-2</v>
       </c>
       <c r="D171">
-        <v>5395</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9951</v>
+      </c>
+      <c r="E171">
+        <v>9559</v>
+      </c>
+      <c r="F171">
+        <v>13015</v>
+      </c>
+      <c r="G171">
+        <f>2/0.059</f>
+        <v>33.898305084745765</v>
+      </c>
+      <c r="I171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>36</v>
       </c>
@@ -5740,13 +6890,25 @@
         <v>165</v>
       </c>
       <c r="C172">
-        <v>0.91</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="D172">
-        <v>6245</v>
-      </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6216</v>
+      </c>
+      <c r="E172">
+        <v>193</v>
+      </c>
+      <c r="F172">
+        <v>9648</v>
+      </c>
+      <c r="G172">
+        <v>0</v>
+      </c>
+      <c r="I172">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>37</v>
       </c>
@@ -5754,13 +6916,25 @@
         <v>166</v>
       </c>
       <c r="C173">
-        <v>0.123</v>
+        <v>0.1</v>
       </c>
       <c r="D173">
         <v>9406</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E173">
+        <v>9199</v>
+      </c>
+      <c r="F173">
+        <v>13062</v>
+      </c>
+      <c r="G173">
+        <v>0</v>
+      </c>
+      <c r="I173">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>37</v>
       </c>
@@ -5768,13 +6942,25 @@
         <v>167</v>
       </c>
       <c r="C174">
-        <v>6.5000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D174">
-        <v>8930</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8641</v>
+      </c>
+      <c r="E174">
+        <v>4638</v>
+      </c>
+      <c r="F174">
+        <v>11121</v>
+      </c>
+      <c r="G174">
+        <v>0</v>
+      </c>
+      <c r="I174">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>37</v>
       </c>
@@ -5787,8 +6973,21 @@
       <c r="D175">
         <v>5730</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E175">
+        <v>1680</v>
+      </c>
+      <c r="F175">
+        <v>13993</v>
+      </c>
+      <c r="G175">
+        <f>3/0.227</f>
+        <v>13.215859030837004</v>
+      </c>
+      <c r="I175">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>37</v>
       </c>
@@ -5799,10 +6998,23 @@
         <v>3.9E-2</v>
       </c>
       <c r="D176">
-        <v>10137</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10231</v>
+      </c>
+      <c r="E176">
+        <v>9102</v>
+      </c>
+      <c r="F176">
+        <v>11245</v>
+      </c>
+      <c r="G176">
+        <f>5/5.758</f>
+        <v>0.86835706842653704</v>
+      </c>
+      <c r="I176">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>37</v>
       </c>
@@ -5810,13 +7022,25 @@
         <v>170</v>
       </c>
       <c r="C177">
-        <v>2.5000000000000001E-2</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D177">
-        <v>11846</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11618</v>
+      </c>
+      <c r="E177">
+        <v>9279</v>
+      </c>
+      <c r="F177">
+        <v>14667</v>
+      </c>
+      <c r="G177">
+        <v>0</v>
+      </c>
+      <c r="I177">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>37</v>
       </c>
@@ -5827,10 +7051,22 @@
         <v>4.5999999999999999E-2</v>
       </c>
       <c r="D178">
-        <v>15150</v>
-      </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+        <v>14213</v>
+      </c>
+      <c r="E178">
+        <v>13183</v>
+      </c>
+      <c r="F178">
+        <v>16230</v>
+      </c>
+      <c r="G178">
+        <v>0</v>
+      </c>
+      <c r="I178">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>38</v>
       </c>
@@ -5844,7 +7080,7 @@
         <v>13290</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>38</v>
       </c>
@@ -5858,7 +7094,7 @@
         <v>11688</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>38</v>
       </c>
@@ -5872,7 +7108,7 @@
         <v>11443</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>38</v>
       </c>
@@ -5886,7 +7122,7 @@
         <v>10958</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>38</v>
       </c>
@@ -5900,7 +7136,7 @@
         <v>13371</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>38</v>
       </c>
@@ -5914,7 +7150,7 @@
         <v>11323</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>39</v>
       </c>
@@ -5928,7 +7164,7 @@
         <v>2203</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>39</v>
       </c>
@@ -5942,7 +7178,7 @@
         <v>3093</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>39</v>
       </c>
@@ -5956,7 +7192,7 @@
         <v>2571</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>39</v>
       </c>
@@ -5970,7 +7206,7 @@
         <v>2548</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>39</v>
       </c>
@@ -5984,7 +7220,7 @@
         <v>2561</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>39</v>
       </c>
@@ -5998,7 +7234,7 @@
         <v>2960</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>40</v>
       </c>
@@ -6012,7 +7248,7 @@
         <v>2306</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>40</v>
       </c>
@@ -11879,6 +13115,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
+++ b/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d79da97edd0525e/Bureau/Ecoacoustic project internship/Acoustic-communities-process-internship/Temporal_distance_measures_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D22F2F6C-EF8D-44E2-9B6E-9EAAE45981D3}"/>
+  <xr:revisionPtr revIDLastSave="1159" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4AF266-A084-4C5A-941A-C22E9BC3F4FC}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="6456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mesures_soundtypes" sheetId="1" r:id="rId1"/>
@@ -33,14 +33,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="658" uniqueCount="633">
   <si>
     <t>duration</t>
   </si>
   <si>
-    <t>amplitude</t>
-  </si>
-  <si>
     <t>001_L_GRANAM_20140620_000000_001</t>
   </si>
   <si>
@@ -1911,6 +1908,30 @@
   </si>
   <si>
     <t>Check again duration</t>
+  </si>
+  <si>
+    <t>hard to define</t>
+  </si>
+  <si>
+    <t>duration previously 1,654</t>
+  </si>
+  <si>
+    <t>duration previously 2,602</t>
+  </si>
+  <si>
+    <t>duration previously 2,713</t>
+  </si>
+  <si>
+    <t>could also be category 5</t>
+  </si>
+  <si>
+    <t>Could be 2</t>
+  </si>
+  <si>
+    <t>Article says category 2</t>
+  </si>
+  <si>
+    <t>could be 7=mix of 4 and 5</t>
   </si>
 </sst>
 </file>
@@ -2781,56 +2802,53 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J610"/>
+  <dimension ref="A1:I610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180"/>
+    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="36.6640625" customWidth="1"/>
-    <col min="9" max="9" width="16.77734375" customWidth="1"/>
+    <col min="8" max="8" width="16.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>609</v>
+      </c>
+      <c r="B1" t="s">
         <v>610</v>
       </c>
-      <c r="B1" t="s">
-        <v>611</v>
-      </c>
       <c r="C1" t="s">
         <v>0</v>
       </c>
       <c r="D1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
         <v>607</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>608</v>
       </c>
-      <c r="F1" t="s">
-        <v>609</v>
-      </c>
       <c r="G1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>622</v>
       </c>
       <c r="I1" t="s">
-        <v>623</v>
-      </c>
-      <c r="J1" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2">
         <v>0.126</v>
@@ -2849,12 +2867,12 @@
         <v>3.5885167464114835</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>0.112</v>
@@ -2873,12 +2891,12 @@
         <v>4.0128410914927768</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>0.11600000000000001</v>
@@ -2897,12 +2915,12 @@
         <v>4.0032025620496396</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>0.121</v>
@@ -2921,12 +2939,12 @@
         <v>4.4987146529562985</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>0.10100000000000001</v>
@@ -2945,12 +2963,12 @@
         <v>4.7846889952153111</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>0.11700000000000001</v>
@@ -2969,12 +2987,12 @@
         <v>4.057971014492753</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5.7000000000000002E-2</v>
@@ -2992,12 +3010,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>2.5999999999999999E-2</v>
@@ -3015,12 +3033,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2</v>
       </c>
       <c r="B10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10">
         <v>7.0999999999999994E-2</v>
@@ -3038,12 +3056,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2</v>
       </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C11">
         <v>3.5000000000000003E-2</v>
@@ -3061,12 +3079,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>2.1999999999999999E-2</v>
@@ -3084,12 +3102,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C13">
         <v>0.155</v>
@@ -3107,12 +3125,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C14">
         <v>2.5000000000000001E-2</v>
@@ -3130,12 +3148,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C15">
         <v>0.04</v>
@@ -3154,12 +3172,12 @@
         <v>15.037593984962406</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C16">
         <v>2.1000000000000001E-2</v>
@@ -3182,7 +3200,7 @@
         <v>3</v>
       </c>
       <c r="B17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17">
         <v>1.9E-2</v>
@@ -3205,7 +3223,7 @@
         <v>3</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18">
         <v>3.1E-2</v>
@@ -3228,7 +3246,7 @@
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>0.02</v>
@@ -3251,7 +3269,7 @@
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20">
         <v>1.4E-2</v>
@@ -3265,7 +3283,7 @@
         <v>4</v>
       </c>
       <c r="B21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C21">
         <v>1.4E-2</v>
@@ -3279,7 +3297,7 @@
         <v>4</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C22">
         <v>1.4999999999999999E-2</v>
@@ -3293,7 +3311,7 @@
         <v>4</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>1.6E-2</v>
@@ -3307,7 +3325,7 @@
         <v>4</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C24">
         <v>2.1000000000000001E-2</v>
@@ -3321,7 +3339,7 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C25">
         <v>0.02</v>
@@ -3345,7 +3363,7 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C26">
         <v>1.7999999999999999E-2</v>
@@ -3368,7 +3386,7 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>1.4E-2</v>
@@ -3391,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C28">
         <v>2.3E-2</v>
@@ -3414,7 +3432,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C29">
         <v>1.7999999999999999E-2</v>
@@ -3437,7 +3455,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>1.9E-2</v>
@@ -3460,7 +3478,7 @@
         <v>6</v>
       </c>
       <c r="B31" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C31">
         <v>2.1000000000000001E-2</v>
@@ -3483,7 +3501,7 @@
         <v>7</v>
       </c>
       <c r="B32" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C32">
         <v>1.7999999999999999E-2</v>
@@ -3501,12 +3519,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>7</v>
       </c>
       <c r="B33" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C33">
         <v>1.7000000000000001E-2</v>
@@ -3524,12 +3542,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>7</v>
       </c>
       <c r="B34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C34">
         <v>1.2999999999999999E-2</v>
@@ -3548,12 +3566,12 @@
         <v>2.9019152640742889</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C35">
         <v>1.4999999999999999E-2</v>
@@ -3571,12 +3589,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>7</v>
       </c>
       <c r="B36" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C36">
         <v>1.4999999999999999E-2</v>
@@ -3594,12 +3612,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>7</v>
       </c>
       <c r="B37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C37">
         <v>1.6E-2</v>
@@ -3618,12 +3636,12 @@
         <v>1.3609145345672291</v>
       </c>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>8</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C38">
         <v>7.1999999999999995E-2</v>
@@ -3641,12 +3659,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>8</v>
       </c>
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C39">
         <v>0.107</v>
@@ -3664,12 +3682,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>0.11</v>
@@ -3677,16 +3695,16 @@
       <c r="D40">
         <v>98</v>
       </c>
-      <c r="J40" t="s">
-        <v>602</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I40" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>8</v>
       </c>
       <c r="B41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C41">
         <v>0.06</v>
@@ -3704,12 +3722,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>8</v>
       </c>
       <c r="B42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C42">
         <v>9.1999999999999998E-2</v>
@@ -3728,12 +3746,12 @@
         <v>2.6455026455026456</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>8</v>
       </c>
       <c r="B43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C43">
         <v>0.19900000000000001</v>
@@ -3751,12 +3769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>9</v>
       </c>
       <c r="B44" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C44">
         <v>1.603</v>
@@ -3774,16 +3792,16 @@
         <f>7/1</f>
         <v>7</v>
       </c>
-      <c r="J44" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I44" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>9</v>
       </c>
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C45">
         <v>0.14099999999999999</v>
@@ -3801,16 +3819,16 @@
         <f>4/1</f>
         <v>4</v>
       </c>
-      <c r="J45" t="s">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I45" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>9</v>
       </c>
       <c r="B46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C46">
         <v>0.40899999999999997</v>
@@ -3829,12 +3847,12 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>9</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C47">
         <v>8.5999999999999993E-2</v>
@@ -3852,12 +3870,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>9</v>
       </c>
       <c r="B48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C48">
         <v>1.9330000000000001</v>
@@ -3881,7 +3899,7 @@
         <v>9</v>
       </c>
       <c r="B49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C49">
         <v>0.129</v>
@@ -3905,7 +3923,7 @@
         <v>10</v>
       </c>
       <c r="B50" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C50">
         <v>0.48099999999999998</v>
@@ -3929,7 +3947,7 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>1.4999999999999999E-2</v>
@@ -3953,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>1.2999999999999999E-2</v>
@@ -3976,7 +3994,7 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>1.7000000000000001E-2</v>
@@ -3999,7 +4017,7 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C54">
         <v>1.7999999999999999E-2</v>
@@ -4022,7 +4040,7 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C55">
         <v>0.02</v>
@@ -4045,7 +4063,7 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C56">
         <v>1.7999999999999999E-2</v>
@@ -4068,7 +4086,7 @@
         <v>12</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C57">
         <v>1.5189999999999999</v>
@@ -4092,7 +4110,7 @@
         <v>12</v>
       </c>
       <c r="B58" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C58">
         <v>0.84899999999999998</v>
@@ -4116,7 +4134,7 @@
         <v>12</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C59">
         <v>0.95</v>
@@ -4140,7 +4158,7 @@
         <v>12</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C60">
         <v>3.7949999999999999</v>
@@ -4164,7 +4182,7 @@
         <v>12</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C61">
         <v>0.98899999999999999</v>
@@ -4188,7 +4206,7 @@
         <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C62">
         <v>1.306</v>
@@ -4212,7 +4230,7 @@
         <v>13</v>
       </c>
       <c r="B63" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C63">
         <v>8.5000000000000006E-2</v>
@@ -4235,7 +4253,7 @@
         <v>14</v>
       </c>
       <c r="B64" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C64">
         <v>0.42</v>
@@ -4254,12 +4272,12 @@
         <v>1.7618927762396175</v>
       </c>
     </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>14</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C65">
         <v>1.04</v>
@@ -4276,16 +4294,16 @@
       <c r="G65">
         <v>0</v>
       </c>
-      <c r="J65" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I65" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>14</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C66">
         <v>1.327</v>
@@ -4304,12 +4322,12 @@
         <v>20.97902097902098</v>
       </c>
     </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>14</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C67">
         <v>3.036</v>
@@ -4328,12 +4346,12 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>15</v>
       </c>
       <c r="B68" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C68">
         <v>3.7679999999999998</v>
@@ -4351,12 +4369,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>15</v>
       </c>
       <c r="B69" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C69">
         <v>4.8250000000000002</v>
@@ -4373,16 +4391,16 @@
       <c r="G69">
         <v>0</v>
       </c>
-      <c r="J69" t="s">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I69" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>15</v>
       </c>
       <c r="B70" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C70">
         <v>10</v>
@@ -4400,12 +4418,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>15</v>
       </c>
       <c r="B71" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C71">
         <v>1.9370000000000001</v>
@@ -4423,12 +4441,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>15</v>
       </c>
       <c r="B72" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C72">
         <v>0.503</v>
@@ -4447,12 +4465,12 @@
         <v>1.2536564981195153</v>
       </c>
     </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>15</v>
       </c>
       <c r="B73" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C73">
         <v>0.62</v>
@@ -4470,12 +4488,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>16</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C74">
         <v>4.3360000000000003</v>
@@ -4494,12 +4512,12 @@
         <v>11.3314447592068</v>
       </c>
     </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C75">
         <v>6.1319999999999997</v>
@@ -4517,16 +4535,16 @@
         <f>10/0.846</f>
         <v>11.82033096926714</v>
       </c>
-      <c r="J75" t="s">
-        <v>613</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I75" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C76">
         <v>10</v>
@@ -4545,12 +4563,12 @@
         <v>2.8620492272467084</v>
       </c>
     </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>16</v>
       </c>
       <c r="B77" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C77">
         <v>0.56599999999999995</v>
@@ -4569,12 +4587,12 @@
         <v>21.598272138228939</v>
       </c>
     </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>16</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C78">
         <v>1.7669999999999999</v>
@@ -4593,12 +4611,12 @@
         <v>8.2018927444794958</v>
       </c>
     </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>16</v>
       </c>
       <c r="B79" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>0.58499999999999996</v>
@@ -4617,12 +4635,12 @@
         <v>30.188679245283016</v>
       </c>
     </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C80">
         <v>1.0980000000000001</v>
@@ -4641,12 +4659,12 @@
         <v>14.430014430014431</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>17</v>
       </c>
       <c r="B81" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C81">
         <v>0.11799999999999999</v>
@@ -4664,16 +4682,16 @@
         <f>4/0.334</f>
         <v>11.976047904191615</v>
       </c>
-      <c r="J81" t="s">
-        <v>614</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I81" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C82">
         <v>1.0940000000000001</v>
@@ -4690,16 +4708,16 @@
       <c r="G82">
         <v>0</v>
       </c>
-      <c r="J82" t="s">
-        <v>615</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I82" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C83">
         <v>0.96699999999999997</v>
@@ -4717,12 +4735,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>17</v>
       </c>
       <c r="B84" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C84">
         <v>0.4</v>
@@ -4741,12 +4759,12 @@
         <v>31.25</v>
       </c>
     </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>17</v>
       </c>
       <c r="B85" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C85">
         <v>0.53200000000000003</v>
@@ -4764,12 +4782,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>18</v>
       </c>
       <c r="B86" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C86">
         <v>0.39</v>
@@ -4788,12 +4806,12 @@
         <v>23.52941176470588</v>
       </c>
     </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C87">
         <v>4.6550000000000002</v>
@@ -4811,12 +4829,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88">
         <v>3.8180000000000001</v>
@@ -4835,12 +4853,12 @@
         <v>21.186440677966104</v>
       </c>
     </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C89">
         <v>3.0049999999999999</v>
@@ -4859,12 +4877,12 @@
         <v>14.141414141414142</v>
       </c>
     </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C90">
         <v>2.085</v>
@@ -4881,16 +4899,16 @@
       <c r="G90">
         <v>0</v>
       </c>
-      <c r="J90" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I90" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>19</v>
       </c>
       <c r="B91" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C91">
         <v>1.806</v>
@@ -4908,12 +4926,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C92">
         <v>1.369</v>
@@ -4932,12 +4950,12 @@
         <v>26.315789473684212</v>
       </c>
     </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>20</v>
       </c>
       <c r="B93" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C93">
         <v>5.1999999999999998E-2</v>
@@ -4956,12 +4974,12 @@
         <v>18.115942028985504</v>
       </c>
     </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>21</v>
       </c>
       <c r="B94" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C94">
         <v>0.183</v>
@@ -4980,12 +4998,12 @@
         <v>1.0793308148947653</v>
       </c>
     </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>21</v>
       </c>
       <c r="B95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C95">
         <v>0.253</v>
@@ -4993,16 +5011,16 @@
       <c r="D95">
         <v>375</v>
       </c>
-      <c r="J95" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I95" t="s">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>21</v>
       </c>
       <c r="B96" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C96">
         <v>0.45400000000000001</v>
@@ -5021,12 +5039,12 @@
         <v>21.582733812949641</v>
       </c>
     </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>21</v>
       </c>
       <c r="B97" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C97">
         <v>0.23</v>
@@ -5045,12 +5063,12 @@
         <v>16.666666666666668</v>
       </c>
     </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>21</v>
       </c>
       <c r="B98" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C98">
         <v>0.41199999999999998</v>
@@ -5068,12 +5086,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>21</v>
       </c>
       <c r="B99" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C99">
         <v>0.29499999999999998</v>
@@ -5091,12 +5109,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>22</v>
       </c>
       <c r="B100" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C100">
         <v>0.125</v>
@@ -5115,12 +5133,12 @@
         <v>2.0655060489820007</v>
       </c>
     </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>22</v>
       </c>
       <c r="B101" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101">
         <v>0.35499999999999998</v>
@@ -5139,12 +5157,12 @@
         <v>13.793103448275863</v>
       </c>
     </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>22</v>
       </c>
       <c r="B102" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C102">
         <v>8.7999999999999995E-2</v>
@@ -5163,12 +5181,12 @@
         <v>2.8030833917309037</v>
       </c>
     </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>22</v>
       </c>
       <c r="B103" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C103">
         <v>1.014</v>
@@ -5186,16 +5204,16 @@
         <f>7/0.303</f>
         <v>23.102310231023104</v>
       </c>
-      <c r="J103" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I103" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>22</v>
       </c>
       <c r="B104" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C104">
         <v>0.2</v>
@@ -5214,12 +5232,12 @@
         <v>21.05263157894737</v>
       </c>
     </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>22</v>
       </c>
       <c r="B105" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C105">
         <v>8.1000000000000003E-2</v>
@@ -5238,12 +5256,12 @@
         <v>1.0672358591248665</v>
       </c>
     </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>23</v>
       </c>
       <c r="B106" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C106">
         <v>0.4</v>
@@ -5262,12 +5280,12 @@
         <v>24.242424242424242</v>
       </c>
     </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>23</v>
       </c>
       <c r="B107" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C107">
         <v>0.4</v>
@@ -5286,12 +5304,12 @@
         <v>21.008403361344538</v>
       </c>
     </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>23</v>
       </c>
       <c r="B108" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C108">
         <v>0.17599999999999999</v>
@@ -5310,12 +5328,12 @@
         <v>2.5974025974025974</v>
       </c>
     </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>23</v>
       </c>
       <c r="B109" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C109">
         <v>0.42399999999999999</v>
@@ -5334,12 +5352,12 @@
         <v>1.4684287812041115</v>
       </c>
     </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>23</v>
       </c>
       <c r="B110" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C110">
         <v>0.1</v>
@@ -5357,12 +5375,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>23</v>
       </c>
       <c r="B111" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <v>0.14499999999999999</v>
@@ -5380,12 +5398,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>24</v>
       </c>
       <c r="B112" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C112">
         <v>7.9000000000000001E-2</v>
@@ -5403,16 +5421,16 @@
         <f>12/1.802</f>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J112" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I112" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>24</v>
       </c>
       <c r="B113" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C113">
         <v>0.123</v>
@@ -5430,16 +5448,16 @@
         <f t="shared" ref="G113:G117" si="0">12/1.802</f>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J113" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I113" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>24</v>
       </c>
       <c r="B114" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C114">
         <v>0.11700000000000001</v>
@@ -5457,16 +5475,16 @@
         <f t="shared" si="0"/>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J114" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I114" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>24</v>
       </c>
       <c r="B115" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C115">
         <v>0.1</v>
@@ -5484,16 +5502,16 @@
         <f t="shared" si="0"/>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J115" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I115" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>24</v>
       </c>
       <c r="B116" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C116">
         <v>0.13800000000000001</v>
@@ -5511,16 +5529,16 @@
         <f t="shared" si="0"/>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J116" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I116" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>24</v>
       </c>
       <c r="B117" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C117">
         <v>7.5999999999999998E-2</v>
@@ -5538,16 +5556,16 @@
         <f t="shared" si="0"/>
         <v>6.6592674805771361</v>
       </c>
-      <c r="J117" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I117" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>25</v>
       </c>
       <c r="B118" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C118">
         <v>1.4999999999999999E-2</v>
@@ -5566,12 +5584,12 @@
         <v>32.258064516129032</v>
       </c>
     </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>25</v>
       </c>
       <c r="B119" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C119">
         <v>1.4E-2</v>
@@ -5590,12 +5608,12 @@
         <v>14.218009478672986</v>
       </c>
     </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>25</v>
       </c>
       <c r="B120" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C120">
         <v>1.4E-2</v>
@@ -5613,12 +5631,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>25</v>
       </c>
       <c r="B121" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C121">
         <v>1.4999999999999999E-2</v>
@@ -5636,12 +5654,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>25</v>
       </c>
       <c r="B122" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C122">
         <v>1.4E-2</v>
@@ -5659,12 +5677,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>25</v>
       </c>
       <c r="B123" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C123">
         <v>1.4999999999999999E-2</v>
@@ -5682,12 +5700,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>26</v>
       </c>
       <c r="B124" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C124">
         <v>1.6E-2</v>
@@ -5706,12 +5724,12 @@
         <v>14.336917562724013</v>
       </c>
     </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>26</v>
       </c>
       <c r="B125" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C125">
         <v>2.1000000000000001E-2</v>
@@ -5730,12 +5748,12 @@
         <v>9.1996320147194108</v>
       </c>
     </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>26</v>
       </c>
       <c r="B126" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C126">
         <v>1.7999999999999999E-2</v>
@@ -5754,12 +5772,12 @@
         <v>10.282776349614396</v>
       </c>
     </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>27</v>
       </c>
       <c r="B127" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C127">
         <v>2.6070000000000002</v>
@@ -5777,16 +5795,16 @@
         <f>6/0.175</f>
         <v>34.285714285714285</v>
       </c>
-      <c r="J127" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I127" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>27</v>
       </c>
       <c r="B128" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C128">
         <v>2.1190000000000002</v>
@@ -5803,16 +5821,16 @@
       <c r="G128">
         <v>0</v>
       </c>
-      <c r="J128" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I128" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>27</v>
       </c>
       <c r="B129" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C129">
         <v>1.601</v>
@@ -5831,12 +5849,12 @@
         <v>30.837004405286343</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>27</v>
       </c>
       <c r="B130" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C130">
         <v>1.254</v>
@@ -5855,12 +5873,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>27</v>
       </c>
       <c r="B131" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C131">
         <v>1.002</v>
@@ -5879,12 +5897,12 @@
         <v>27.27272727272727</v>
       </c>
     </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>27</v>
       </c>
       <c r="B132" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C132">
         <v>0.68500000000000005</v>
@@ -5903,12 +5921,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>28</v>
       </c>
       <c r="B133" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C133">
         <v>0.61099999999999999</v>
@@ -5925,16 +5943,16 @@
       <c r="G133">
         <v>0</v>
       </c>
-      <c r="J133" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I133" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>28</v>
       </c>
       <c r="B134" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C134">
         <v>0.61399999999999999</v>
@@ -5951,16 +5969,16 @@
       <c r="G134">
         <v>0</v>
       </c>
-      <c r="J134" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I134" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>28</v>
       </c>
       <c r="B135" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C135">
         <v>0.61699999999999999</v>
@@ -5977,16 +5995,16 @@
       <c r="G135">
         <v>0</v>
       </c>
-      <c r="J135" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I135" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>28</v>
       </c>
       <c r="B136" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C136">
         <v>0.61099999999999999</v>
@@ -6003,16 +6021,16 @@
       <c r="G136">
         <v>0</v>
       </c>
-      <c r="J136" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I136" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>29</v>
       </c>
       <c r="B137" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C137">
         <v>0.61299999999999999</v>
@@ -6031,12 +6049,12 @@
         <v>1.7251293847038527</v>
       </c>
     </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>29</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C138">
         <v>0.251</v>
@@ -6055,12 +6073,12 @@
         <v>38.759689922480618</v>
       </c>
     </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>29</v>
       </c>
       <c r="B139" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C139">
         <v>0.33300000000000002</v>
@@ -6079,12 +6097,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>29</v>
       </c>
       <c r="B140" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C140">
         <v>0.31</v>
@@ -6103,12 +6121,12 @@
         <v>40.983606557377051</v>
       </c>
     </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>29</v>
       </c>
       <c r="B141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C141">
         <v>0.4</v>
@@ -6127,12 +6145,12 @@
         <v>24.999999999999996</v>
       </c>
     </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>29</v>
       </c>
       <c r="B142" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142">
         <v>0.4</v>
@@ -6149,16 +6167,16 @@
       <c r="G142">
         <v>0</v>
       </c>
-      <c r="J142" t="s">
-        <v>622</v>
-      </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I142" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>30</v>
       </c>
       <c r="B143" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C143">
         <v>3.7999999999999999E-2</v>
@@ -6177,12 +6195,12 @@
         <v>52.631578947368425</v>
       </c>
     </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>30</v>
       </c>
       <c r="B144" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C144">
         <v>4.9000000000000002E-2</v>
@@ -6201,12 +6219,12 @@
         <v>40.816326530612244</v>
       </c>
     </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>30</v>
       </c>
       <c r="B145" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C145">
         <v>4.2999999999999997E-2</v>
@@ -6225,12 +6243,12 @@
         <v>46.511627906976749</v>
       </c>
     </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>31</v>
       </c>
       <c r="B146" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C146">
         <v>0.193</v>
@@ -6249,12 +6267,12 @@
         <v>2.5889967637540456</v>
       </c>
     </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>31</v>
       </c>
       <c r="B147" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C147">
         <v>0.123</v>
@@ -6273,12 +6291,12 @@
         <v>3.3288948069241013</v>
       </c>
     </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>31</v>
       </c>
       <c r="B148" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C148">
         <v>0.157</v>
@@ -6297,12 +6315,12 @@
         <v>2.86368843069874</v>
       </c>
     </row>
-    <row r="149" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>31</v>
       </c>
       <c r="B149" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C149">
         <v>0.17799999999999999</v>
@@ -6321,12 +6339,12 @@
         <v>2.4479804161566707</v>
       </c>
     </row>
-    <row r="150" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>31</v>
       </c>
       <c r="B150" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C150">
         <v>0.14499999999999999</v>
@@ -6345,12 +6363,12 @@
         <v>2.8248587570621471</v>
       </c>
     </row>
-    <row r="151" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>31</v>
       </c>
       <c r="B151" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C151">
         <v>0.156</v>
@@ -6369,12 +6387,12 @@
         <v>2.6929982046678633</v>
       </c>
     </row>
-    <row r="152" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>32</v>
       </c>
       <c r="B152" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C152">
         <v>0.13500000000000001</v>
@@ -6392,12 +6410,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>32</v>
       </c>
       <c r="B153" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C153">
         <v>0.20300000000000001</v>
@@ -6415,12 +6433,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>33</v>
       </c>
       <c r="B154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C154">
         <v>0.115</v>
@@ -6439,12 +6457,12 @@
         <v>6.5789473684210531</v>
       </c>
     </row>
-    <row r="155" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>33</v>
       </c>
       <c r="B155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C155">
         <v>0.11899999999999999</v>
@@ -6462,12 +6480,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>33</v>
       </c>
       <c r="B156" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C156">
         <v>0.16700000000000001</v>
@@ -6486,12 +6504,12 @@
         <v>0.56872037914691942</v>
       </c>
     </row>
-    <row r="157" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>33</v>
       </c>
       <c r="B157" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C157">
         <v>0.112</v>
@@ -6510,12 +6528,12 @@
         <v>0.67087079028579089</v>
       </c>
     </row>
-    <row r="158" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>33</v>
       </c>
       <c r="B158" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C158">
         <v>7.0000000000000007E-2</v>
@@ -6534,12 +6552,12 @@
         <v>0.9536784741144414</v>
       </c>
     </row>
-    <row r="159" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>33</v>
       </c>
       <c r="B159" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C159">
         <v>0.153</v>
@@ -6557,12 +6575,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>34</v>
       </c>
       <c r="B160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C160">
         <v>0.54900000000000004</v>
@@ -6580,19 +6598,19 @@
         <f>2/1.358</f>
         <v>1.4727540500736376</v>
       </c>
-      <c r="I160">
+      <c r="H160">
         <v>5</v>
       </c>
-      <c r="J160" t="s">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="161" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I160" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>34</v>
       </c>
       <c r="B161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C161">
         <v>0.1</v>
@@ -6610,16 +6628,16 @@
         <f>2/0.222</f>
         <v>9.0090090090090094</v>
       </c>
-      <c r="I161">
+      <c r="H161">
         <v>5</v>
       </c>
     </row>
-    <row r="162" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>34</v>
       </c>
       <c r="B162" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C162">
         <v>0.106</v>
@@ -6637,16 +6655,16 @@
         <f>3/0.319</f>
         <v>9.4043887147335425</v>
       </c>
-      <c r="I162">
+      <c r="H162">
         <v>5</v>
       </c>
     </row>
-    <row r="163" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>34</v>
       </c>
       <c r="B163" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C163">
         <v>0.151</v>
@@ -6663,16 +6681,16 @@
       <c r="G163">
         <v>0</v>
       </c>
-      <c r="I163">
+      <c r="H163">
         <v>5</v>
       </c>
     </row>
-    <row r="164" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>34</v>
       </c>
       <c r="B164" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C164">
         <v>0.98499999999999999</v>
@@ -6690,16 +6708,16 @@
         <f>3/6.881</f>
         <v>0.43598314198517657</v>
       </c>
-      <c r="I164">
+      <c r="H164">
         <v>5</v>
       </c>
     </row>
-    <row r="165" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>34</v>
       </c>
       <c r="B165" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C165">
         <v>0.82899999999999996</v>
@@ -6716,16 +6734,16 @@
       <c r="G165">
         <v>0</v>
       </c>
-      <c r="I165">
+      <c r="H165">
         <v>5</v>
       </c>
     </row>
-    <row r="166" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>35</v>
       </c>
       <c r="B166" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C166">
         <v>3.7999999999999999E-2</v>
@@ -6743,19 +6761,19 @@
         <f>7/0.276</f>
         <v>25.362318840579707</v>
       </c>
-      <c r="I166">
+      <c r="H166">
         <v>4</v>
       </c>
-      <c r="J166" t="s">
-        <v>625</v>
-      </c>
-    </row>
-    <row r="167" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="I166" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>35</v>
       </c>
       <c r="B167" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C167">
         <v>3.4000000000000002E-2</v>
@@ -6773,16 +6791,16 @@
         <f>8/0.317</f>
         <v>25.236593059936908</v>
       </c>
-      <c r="I167">
+      <c r="H167">
         <v>4</v>
       </c>
     </row>
-    <row r="168" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>35</v>
       </c>
       <c r="B168" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C168">
         <v>9.1999999999999998E-2</v>
@@ -6799,16 +6817,16 @@
       <c r="G168">
         <v>0</v>
       </c>
-      <c r="I168">
+      <c r="H168">
         <v>5</v>
       </c>
     </row>
-    <row r="169" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>35</v>
       </c>
       <c r="B169" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C169">
         <v>0.155</v>
@@ -6825,16 +6843,16 @@
       <c r="G169">
         <v>0</v>
       </c>
-      <c r="I169">
+      <c r="H169">
         <v>5</v>
       </c>
     </row>
-    <row r="170" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>35</v>
       </c>
       <c r="B170" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C170">
         <v>4.4999999999999998E-2</v>
@@ -6851,16 +6869,16 @@
       <c r="G170">
         <v>0</v>
       </c>
-      <c r="I170">
+      <c r="H170">
         <v>5</v>
       </c>
     </row>
-    <row r="171" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>35</v>
       </c>
       <c r="B171" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C171">
         <v>2.5999999999999999E-2</v>
@@ -6878,16 +6896,16 @@
         <f>2/0.059</f>
         <v>33.898305084745765</v>
       </c>
-      <c r="I171">
+      <c r="H171">
         <v>4</v>
       </c>
     </row>
-    <row r="172" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>36</v>
       </c>
       <c r="B172" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C172">
         <v>0.71799999999999997</v>
@@ -6904,16 +6922,16 @@
       <c r="G172">
         <v>0</v>
       </c>
-      <c r="I172">
+      <c r="H172">
         <v>5</v>
       </c>
     </row>
-    <row r="173" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>37</v>
       </c>
       <c r="B173" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C173">
         <v>0.1</v>
@@ -6930,16 +6948,16 @@
       <c r="G173">
         <v>0</v>
       </c>
-      <c r="I173">
+      <c r="H173">
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>37</v>
       </c>
       <c r="B174" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C174">
         <v>0.1</v>
@@ -6956,16 +6974,16 @@
       <c r="G174">
         <v>0</v>
       </c>
-      <c r="I174">
+      <c r="H174">
         <v>4</v>
       </c>
     </row>
-    <row r="175" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>37</v>
       </c>
       <c r="B175" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C175">
         <v>5.6000000000000001E-2</v>
@@ -6983,16 +7001,16 @@
         <f>3/0.227</f>
         <v>13.215859030837004</v>
       </c>
-      <c r="I175">
+      <c r="H175">
         <v>4</v>
       </c>
     </row>
-    <row r="176" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>37</v>
       </c>
       <c r="B176" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C176">
         <v>3.9E-2</v>
@@ -7010,7 +7028,7 @@
         <f>5/5.758</f>
         <v>0.86835706842653704</v>
       </c>
-      <c r="I176">
+      <c r="H176">
         <v>3</v>
       </c>
     </row>
@@ -7019,7 +7037,7 @@
         <v>37</v>
       </c>
       <c r="B177" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C177">
         <v>3.7999999999999999E-2</v>
@@ -7036,7 +7054,7 @@
       <c r="G177">
         <v>0</v>
       </c>
-      <c r="I177">
+      <c r="H177">
         <v>3</v>
       </c>
     </row>
@@ -7045,7 +7063,7 @@
         <v>37</v>
       </c>
       <c r="B178" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C178">
         <v>4.5999999999999999E-2</v>
@@ -7062,7 +7080,7 @@
       <c r="G178">
         <v>0</v>
       </c>
-      <c r="I178">
+      <c r="H178">
         <v>3</v>
       </c>
     </row>
@@ -7071,7 +7089,7 @@
         <v>38</v>
       </c>
       <c r="B179" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C179">
         <v>0.19700000000000001</v>
@@ -7085,13 +7103,25 @@
         <v>38</v>
       </c>
       <c r="B180" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C180">
-        <v>0.19400000000000001</v>
+        <v>0.129</v>
       </c>
       <c r="D180">
-        <v>11688</v>
+        <v>11784</v>
+      </c>
+      <c r="E180">
+        <v>8062</v>
+      </c>
+      <c r="F180">
+        <v>15150</v>
+      </c>
+      <c r="G180">
+        <v>0</v>
+      </c>
+      <c r="H180">
+        <v>3</v>
       </c>
     </row>
     <row r="181" spans="1:9" x14ac:dyDescent="0.3">
@@ -7099,13 +7129,25 @@
         <v>38</v>
       </c>
       <c r="B181" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C181">
-        <v>0.29099999999999998</v>
+        <v>0.20200000000000001</v>
       </c>
       <c r="D181">
-        <v>11443</v>
+        <v>10472</v>
+      </c>
+      <c r="E181">
+        <v>10022</v>
+      </c>
+      <c r="F181">
+        <v>12411</v>
+      </c>
+      <c r="G181">
+        <v>0</v>
+      </c>
+      <c r="H181">
+        <v>4</v>
       </c>
     </row>
     <row r="182" spans="1:9" x14ac:dyDescent="0.3">
@@ -7113,13 +7155,25 @@
         <v>38</v>
       </c>
       <c r="B182" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C182">
         <v>0.159</v>
       </c>
       <c r="D182">
         <v>10958</v>
+      </c>
+      <c r="E182">
+        <v>10758</v>
+      </c>
+      <c r="F182">
+        <v>16940</v>
+      </c>
+      <c r="G182">
+        <v>0</v>
+      </c>
+      <c r="H182">
+        <v>4</v>
       </c>
     </row>
     <row r="183" spans="1:9" x14ac:dyDescent="0.3">
@@ -7127,13 +7181,13 @@
         <v>38</v>
       </c>
       <c r="B183" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C183">
         <v>0.182</v>
       </c>
       <c r="D183">
-        <v>13371</v>
+        <v>13380</v>
       </c>
     </row>
     <row r="184" spans="1:9" x14ac:dyDescent="0.3">
@@ -7141,7 +7195,7 @@
         <v>38</v>
       </c>
       <c r="B184" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C184">
         <v>0.21099999999999999</v>
@@ -7155,13 +7209,25 @@
         <v>39</v>
       </c>
       <c r="B185" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C185">
-        <v>0.4</v>
+        <v>5.8999999999999997E-2</v>
       </c>
       <c r="D185">
-        <v>2203</v>
+        <v>2611</v>
+      </c>
+      <c r="E185">
+        <v>2537</v>
+      </c>
+      <c r="F185">
+        <v>2661</v>
+      </c>
+      <c r="G185">
+        <v>0</v>
+      </c>
+      <c r="H185">
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:9" x14ac:dyDescent="0.3">
@@ -7169,13 +7235,28 @@
         <v>39</v>
       </c>
       <c r="B186" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C186">
-        <v>0.4</v>
+        <v>0.09</v>
       </c>
       <c r="D186">
-        <v>3093</v>
+        <v>2440</v>
+      </c>
+      <c r="E186">
+        <v>2407</v>
+      </c>
+      <c r="F186">
+        <v>2495</v>
+      </c>
+      <c r="G186">
+        <v>0</v>
+      </c>
+      <c r="H186">
+        <v>1</v>
+      </c>
+      <c r="I186" t="s">
+        <v>625</v>
       </c>
     </row>
     <row r="187" spans="1:9" x14ac:dyDescent="0.3">
@@ -7183,13 +7264,25 @@
         <v>39</v>
       </c>
       <c r="B187" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C187">
-        <v>0.4</v>
+        <v>7.1999999999999995E-2</v>
       </c>
       <c r="D187">
-        <v>2571</v>
+        <v>2589</v>
+      </c>
+      <c r="E187">
+        <v>2536</v>
+      </c>
+      <c r="F187">
+        <v>2719</v>
+      </c>
+      <c r="G187">
+        <v>0</v>
+      </c>
+      <c r="H187">
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:9" x14ac:dyDescent="0.3">
@@ -7197,7 +7290,7 @@
         <v>39</v>
       </c>
       <c r="B188" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C188">
         <v>0.4</v>
@@ -7211,7 +7304,7 @@
         <v>39</v>
       </c>
       <c r="B189" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C189">
         <v>0.4</v>
@@ -7225,7 +7318,7 @@
         <v>39</v>
       </c>
       <c r="B190" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C190">
         <v>0.4</v>
@@ -7239,13 +7332,25 @@
         <v>40</v>
       </c>
       <c r="B191" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C191">
-        <v>0.111</v>
+        <v>0.12</v>
       </c>
       <c r="D191">
-        <v>2306</v>
+        <v>2319</v>
+      </c>
+      <c r="E191">
+        <v>1945</v>
+      </c>
+      <c r="F191">
+        <v>3274</v>
+      </c>
+      <c r="G191">
+        <v>0</v>
+      </c>
+      <c r="H191">
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:9" x14ac:dyDescent="0.3">
@@ -7253,21 +7358,33 @@
         <v>40</v>
       </c>
       <c r="B192" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C192">
-        <v>0.16700000000000001</v>
+        <v>0.17699999999999999</v>
       </c>
       <c r="D192">
         <v>2414</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E192">
+        <v>1637</v>
+      </c>
+      <c r="F192">
+        <v>4999</v>
+      </c>
+      <c r="G192">
+        <v>0</v>
+      </c>
+      <c r="H192">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>40</v>
       </c>
       <c r="B193" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C193">
         <v>4.7E-2</v>
@@ -7276,26 +7393,38 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>40</v>
       </c>
       <c r="B194" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C194">
-        <v>3.9E-2</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="D194">
-        <v>1816</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1822</v>
+      </c>
+      <c r="E194">
+        <v>1138</v>
+      </c>
+      <c r="F194">
+        <v>5898</v>
+      </c>
+      <c r="G194">
+        <v>0</v>
+      </c>
+      <c r="H194">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>40</v>
       </c>
       <c r="B195" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C195">
         <v>0.13200000000000001</v>
@@ -7304,12 +7433,12 @@
         <v>2466</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>40</v>
       </c>
       <c r="B196" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C196">
         <v>0.12</v>
@@ -7318,54 +7447,102 @@
         <v>3489</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>41</v>
       </c>
       <c r="B197" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C197">
-        <v>1.4019999999999999</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D197">
-        <v>2642</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2657</v>
+      </c>
+      <c r="E197">
+        <v>942</v>
+      </c>
+      <c r="F197">
+        <v>6356</v>
+      </c>
+      <c r="G197">
+        <f>25/0.958</f>
+        <v>26.096033402922757</v>
+      </c>
+      <c r="H197">
+        <v>6</v>
+      </c>
+      <c r="I197" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>41</v>
       </c>
       <c r="B198" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C198">
-        <v>2.6019999999999999</v>
+        <v>3.7999999999999999E-2</v>
       </c>
       <c r="D198">
-        <v>4959</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4948</v>
+      </c>
+      <c r="E198">
+        <v>1147</v>
+      </c>
+      <c r="F198">
+        <v>6648</v>
+      </c>
+      <c r="G198">
+        <f>31/2.507</f>
+        <v>12.365376944555244</v>
+      </c>
+      <c r="H198">
+        <v>6</v>
+      </c>
+      <c r="I198" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>41</v>
       </c>
       <c r="B199" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C199">
-        <v>2.7130000000000001</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D199">
-        <v>5509</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5548</v>
+      </c>
+      <c r="E199">
+        <v>94</v>
+      </c>
+      <c r="F199">
+        <v>18207</v>
+      </c>
+      <c r="G199">
+        <f>7/0.717</f>
+        <v>9.7629009762900978</v>
+      </c>
+      <c r="H199">
+        <v>6</v>
+      </c>
+      <c r="I199" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>41</v>
       </c>
       <c r="B200" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C200">
         <v>2.121</v>
@@ -7374,12 +7551,12 @@
         <v>3770</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>41</v>
       </c>
       <c r="B201" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C201">
         <v>0.36099999999999999</v>
@@ -7388,12 +7565,12 @@
         <v>1927</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>41</v>
       </c>
       <c r="B202" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C202">
         <v>4.0069999999999997</v>
@@ -7402,40 +7579,64 @@
         <v>2527</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>42</v>
       </c>
       <c r="B203" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C203">
         <v>0.30199999999999999</v>
       </c>
       <c r="D203">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>408</v>
+      </c>
+      <c r="E203">
+        <v>131</v>
+      </c>
+      <c r="F203">
+        <v>1927</v>
+      </c>
+      <c r="G203">
+        <v>0</v>
+      </c>
+      <c r="H203">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>42</v>
       </c>
       <c r="B204" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C204">
         <v>0.18099999999999999</v>
       </c>
       <c r="D204">
-        <v>2592</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2004</v>
+      </c>
+      <c r="E204">
+        <v>1192</v>
+      </c>
+      <c r="F204">
+        <v>3125</v>
+      </c>
+      <c r="G204">
+        <v>0</v>
+      </c>
+      <c r="H204">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>42</v>
       </c>
       <c r="B205" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C205">
         <v>0.4</v>
@@ -7444,26 +7645,38 @@
         <v>1882</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>42</v>
       </c>
       <c r="B206" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C206">
-        <v>0.30099999999999999</v>
+        <v>0.31</v>
       </c>
       <c r="D206">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2006</v>
+      </c>
+      <c r="E206">
+        <v>1332</v>
+      </c>
+      <c r="F206">
+        <v>2183</v>
+      </c>
+      <c r="G206">
+        <v>0</v>
+      </c>
+      <c r="H206">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>42</v>
       </c>
       <c r="B207" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C207">
         <v>0.52700000000000002</v>
@@ -7472,12 +7685,12 @@
         <v>1744</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>42</v>
       </c>
       <c r="B208" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C208">
         <v>0.28999999999999998</v>
@@ -7486,26 +7699,38 @@
         <v>2021</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>43</v>
       </c>
       <c r="B209" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C209">
-        <v>0.192</v>
+        <v>0.219</v>
       </c>
       <c r="D209">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.3">
+        <v>423</v>
+      </c>
+      <c r="E209">
+        <v>0</v>
+      </c>
+      <c r="F209">
+        <v>1129</v>
+      </c>
+      <c r="G209">
+        <v>0</v>
+      </c>
+      <c r="H209">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>43</v>
       </c>
       <c r="B210" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C210">
         <v>0.26500000000000001</v>
@@ -7514,12 +7739,12 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>43</v>
       </c>
       <c r="B211" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C211">
         <v>0.53900000000000003</v>
@@ -7528,40 +7753,64 @@
         <v>2215</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>43</v>
       </c>
       <c r="B212" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C212">
         <v>0.57899999999999996</v>
       </c>
       <c r="D212">
-        <v>2281</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2289</v>
+      </c>
+      <c r="E212">
+        <v>2195</v>
+      </c>
+      <c r="F212">
+        <v>3526</v>
+      </c>
+      <c r="G212">
+        <v>0</v>
+      </c>
+      <c r="H212">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>43</v>
       </c>
       <c r="B213" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C213">
-        <v>0.189</v>
+        <v>0.20399999999999999</v>
       </c>
       <c r="D213">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.3">
+        <v>535</v>
+      </c>
+      <c r="E213">
+        <v>443</v>
+      </c>
+      <c r="F213">
+        <v>1910</v>
+      </c>
+      <c r="G213">
+        <v>0</v>
+      </c>
+      <c r="H213">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>43</v>
       </c>
       <c r="B214" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C214">
         <v>0.17899999999999999</v>
@@ -7570,54 +7819,90 @@
         <v>523</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>44</v>
       </c>
       <c r="B215" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C215">
-        <v>1.6E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
       <c r="D215">
-        <v>3851</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3374</v>
+      </c>
+      <c r="E215">
+        <v>222</v>
+      </c>
+      <c r="F215">
+        <v>21905</v>
+      </c>
+      <c r="G215">
+        <v>0</v>
+      </c>
+      <c r="H215">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>44</v>
       </c>
       <c r="B216" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C216">
-        <v>1.6E-2</v>
+        <v>3.1E-2</v>
       </c>
       <c r="D216">
-        <v>4515</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4470</v>
+      </c>
+      <c r="E216">
+        <v>1511</v>
+      </c>
+      <c r="F216">
+        <v>11746</v>
+      </c>
+      <c r="G216">
+        <v>0</v>
+      </c>
+      <c r="H216">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>44</v>
       </c>
       <c r="B217" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C217">
-        <v>1.9E-2</v>
+        <v>3.9E-2</v>
       </c>
       <c r="D217">
-        <v>4224</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4237</v>
+      </c>
+      <c r="E217">
+        <v>1795</v>
+      </c>
+      <c r="F217">
+        <v>11638</v>
+      </c>
+      <c r="G217">
+        <v>0</v>
+      </c>
+      <c r="H217">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>44</v>
       </c>
       <c r="B218" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C218">
         <v>1.4999999999999999E-2</v>
@@ -7626,12 +7911,12 @@
         <v>5674</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>44</v>
       </c>
       <c r="B219" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C219">
         <v>1.9E-2</v>
@@ -7640,12 +7925,12 @@
         <v>3918</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>44</v>
       </c>
       <c r="B220" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C220">
         <v>2.9000000000000001E-2</v>
@@ -7654,12 +7939,12 @@
         <v>3228</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>45</v>
       </c>
       <c r="B221" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C221">
         <v>10</v>
@@ -7667,13 +7952,25 @@
       <c r="D221">
         <v>115</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E221">
+        <v>100</v>
+      </c>
+      <c r="F221">
+        <v>401</v>
+      </c>
+      <c r="G221">
+        <v>0</v>
+      </c>
+      <c r="H221">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>45</v>
       </c>
       <c r="B222" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C222">
         <v>10</v>
@@ -7682,26 +7979,38 @@
         <v>140</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>45</v>
       </c>
       <c r="B223" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C223">
         <v>10</v>
       </c>
       <c r="D223">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+      <c r="E223">
+        <v>61</v>
+      </c>
+      <c r="F223">
+        <v>210</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>45</v>
       </c>
       <c r="B224" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C224">
         <v>10</v>
@@ -7709,13 +8018,25 @@
       <c r="D224">
         <v>89</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E224">
+        <v>39</v>
+      </c>
+      <c r="F224">
+        <v>113</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>45</v>
       </c>
       <c r="B225" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C225">
         <v>10</v>
@@ -7724,12 +8045,12 @@
         <v>218</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>45</v>
       </c>
       <c r="B226" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C226">
         <v>6.1660000000000004</v>
@@ -7738,54 +8059,95 @@
         <v>100</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>46</v>
       </c>
       <c r="B227" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C227">
-        <v>5.3999999999999999E-2</v>
+        <v>0.6</v>
       </c>
       <c r="D227">
         <v>16841</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E227">
+        <v>13730</v>
+      </c>
+      <c r="F227">
+        <v>21384</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>46</v>
       </c>
       <c r="B228" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C228">
-        <v>0.19400000000000001</v>
+        <v>0.14099999999999999</v>
       </c>
       <c r="D228">
-        <v>16607</v>
-      </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.3">
+        <v>17125</v>
+      </c>
+      <c r="E228">
+        <v>11798</v>
+      </c>
+      <c r="F228">
+        <v>18840</v>
+      </c>
+      <c r="G228">
+        <f>6/2.31</f>
+        <v>2.5974025974025974</v>
+      </c>
+      <c r="H228">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>46</v>
       </c>
       <c r="B229" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C229">
         <v>0.113</v>
       </c>
       <c r="D229">
-        <v>19443</v>
-      </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.3">
+        <v>19404</v>
+      </c>
+      <c r="E229">
+        <v>18361</v>
+      </c>
+      <c r="F229">
+        <v>22050</v>
+      </c>
+      <c r="G229">
+        <f>9/1.794</f>
+        <v>5.0167224080267561</v>
+      </c>
+      <c r="H229">
+        <v>2</v>
+      </c>
+      <c r="I229" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>46</v>
       </c>
       <c r="B230" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C230">
         <v>8.6999999999999994E-2</v>
@@ -7794,12 +8156,12 @@
         <v>20217</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>46</v>
       </c>
       <c r="B231" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C231">
         <v>0.16500000000000001</v>
@@ -7808,12 +8170,12 @@
         <v>15329</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>46</v>
       </c>
       <c r="B232" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C232">
         <v>8.1000000000000003E-2</v>
@@ -7822,26 +8184,41 @@
         <v>16446</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>47</v>
       </c>
       <c r="B233" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C233">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D233">
-        <v>2674</v>
-      </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2700</v>
+      </c>
+      <c r="E233">
+        <v>1961</v>
+      </c>
+      <c r="F233">
+        <v>3409</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>5</v>
+      </c>
+      <c r="I233" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>47</v>
       </c>
       <c r="B234" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C234">
         <v>8.7999999999999995E-2</v>
@@ -7850,26 +8227,41 @@
         <v>2291</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>47</v>
       </c>
       <c r="B235" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C235">
-        <v>0.10299999999999999</v>
+        <v>9.4E-2</v>
       </c>
       <c r="D235">
-        <v>2619</v>
-      </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2615</v>
+      </c>
+      <c r="E235">
+        <v>2124</v>
+      </c>
+      <c r="F235">
+        <v>2760</v>
+      </c>
+      <c r="G235">
+        <v>0</v>
+      </c>
+      <c r="H235">
+        <v>5</v>
+      </c>
+      <c r="I235" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>47</v>
       </c>
       <c r="B236" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C236">
         <v>0.151</v>
@@ -7878,26 +8270,41 @@
         <v>2699</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>47</v>
       </c>
       <c r="B237" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C237">
-        <v>0.111</v>
+        <v>0.95</v>
       </c>
       <c r="D237">
-        <v>2607</v>
-      </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2613</v>
+      </c>
+      <c r="E237">
+        <v>2217</v>
+      </c>
+      <c r="F237">
+        <v>3245</v>
+      </c>
+      <c r="G237">
+        <v>0</v>
+      </c>
+      <c r="H237">
+        <v>5</v>
+      </c>
+      <c r="I237" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>47</v>
       </c>
       <c r="B238" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C238">
         <v>0.34899999999999998</v>
@@ -7906,82 +8313,142 @@
         <v>2482</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>48</v>
       </c>
       <c r="B239" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C239">
         <v>10</v>
       </c>
       <c r="D239">
-        <v>11069</v>
-      </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11057</v>
+      </c>
+      <c r="E239">
+        <v>4246</v>
+      </c>
+      <c r="F239">
+        <v>22050</v>
+      </c>
+      <c r="G239">
+        <v>0</v>
+      </c>
+      <c r="H239">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>48</v>
       </c>
       <c r="B240" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C240">
         <v>3.7919999999999998</v>
       </c>
       <c r="D240">
-        <v>11077</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11060</v>
+      </c>
+      <c r="E240">
+        <v>5975</v>
+      </c>
+      <c r="F240">
+        <v>22050</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="H240">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>48</v>
       </c>
       <c r="B241" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C241">
         <v>0.67500000000000004</v>
       </c>
       <c r="D241">
-        <v>11238</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11231</v>
+      </c>
+      <c r="E241">
+        <v>6075</v>
+      </c>
+      <c r="F241">
+        <v>18397</v>
+      </c>
+      <c r="G241">
+        <v>0</v>
+      </c>
+      <c r="H241">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>48</v>
       </c>
       <c r="B242" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C242">
         <v>10</v>
       </c>
       <c r="D242">
-        <v>11262</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13023</v>
+      </c>
+      <c r="E242">
+        <v>5996</v>
+      </c>
+      <c r="F242">
+        <v>22050</v>
+      </c>
+      <c r="G242">
+        <v>0</v>
+      </c>
+      <c r="H242">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>49</v>
       </c>
       <c r="B243" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C243">
         <v>0.29499999999999998</v>
       </c>
       <c r="D243">
-        <v>7167</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7175</v>
+      </c>
+      <c r="E243">
+        <v>6700</v>
+      </c>
+      <c r="F243">
+        <v>9645</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="H243">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>49</v>
       </c>
       <c r="B244" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C244">
         <v>0.39100000000000001</v>
@@ -7989,13 +8456,25 @@
       <c r="D244">
         <v>13391</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E244">
+        <v>2272</v>
+      </c>
+      <c r="F244">
+        <v>17066</v>
+      </c>
+      <c r="G244">
+        <v>0</v>
+      </c>
+      <c r="H244">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>49</v>
       </c>
       <c r="B245" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C245">
         <v>0.72799999999999998</v>
@@ -8003,13 +8482,26 @@
       <c r="D245">
         <v>5914</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E245">
+        <v>229</v>
+      </c>
+      <c r="F245">
+        <v>19762</v>
+      </c>
+      <c r="G245">
+        <f>3/4.608</f>
+        <v>0.65104166666666674</v>
+      </c>
+      <c r="H245">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>49</v>
       </c>
       <c r="B246" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C246">
         <v>0.35099999999999998</v>
@@ -8018,12 +8510,12 @@
         <v>10424</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>49</v>
       </c>
       <c r="B247" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C247">
         <v>0.249</v>
@@ -8032,12 +8524,12 @@
         <v>5547</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>49</v>
       </c>
       <c r="B248" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C248">
         <v>0.26700000000000002</v>
@@ -8046,54 +8538,91 @@
         <v>12235</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>50</v>
       </c>
       <c r="B249" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C249">
-        <v>0.65900000000000003</v>
+        <v>0.48</v>
       </c>
       <c r="D249">
-        <v>5932</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+        <v>5802</v>
+      </c>
+      <c r="E249">
+        <v>4796</v>
+      </c>
+      <c r="F249">
+        <v>6533</v>
+      </c>
+      <c r="G249">
+        <f>2/1.53</f>
+        <v>1.3071895424836601</v>
+      </c>
+      <c r="H249">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>50</v>
       </c>
       <c r="B250" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C250">
         <v>0.84399999999999997</v>
       </c>
       <c r="D250">
-        <v>11728</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11735</v>
+      </c>
+      <c r="E250">
+        <v>9191</v>
+      </c>
+      <c r="F250">
+        <v>12900</v>
+      </c>
+      <c r="G250">
+        <v>0</v>
+      </c>
+      <c r="H250">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>50</v>
       </c>
       <c r="B251" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C251">
-        <v>2.6480000000000001</v>
+        <v>2.577</v>
       </c>
       <c r="D251">
-        <v>9781</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9784</v>
+      </c>
+      <c r="E251">
+        <v>7147</v>
+      </c>
+      <c r="F251">
+        <v>14112</v>
+      </c>
+      <c r="G251">
+        <v>0</v>
+      </c>
+      <c r="H251">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>50</v>
       </c>
       <c r="B252" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C252">
         <v>2.9929999999999999</v>
@@ -8102,12 +8631,12 @@
         <v>4840</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>50</v>
       </c>
       <c r="B253" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C253">
         <v>0.49299999999999999</v>
@@ -8116,12 +8645,12 @@
         <v>6248</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>50</v>
       </c>
       <c r="B254" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C254">
         <v>0.76600000000000001</v>
@@ -8130,54 +8659,92 @@
         <v>4191</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>51</v>
       </c>
       <c r="B255" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="C255">
-        <v>0.49099999999999999</v>
+        <v>0.438</v>
       </c>
       <c r="D255">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+        <v>509</v>
+      </c>
+      <c r="E255">
+        <v>399</v>
+      </c>
+      <c r="F255">
+        <v>570</v>
+      </c>
+      <c r="G255">
+        <v>0</v>
+      </c>
+      <c r="H255">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>51</v>
       </c>
       <c r="B256" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C256">
         <v>0.10100000000000001</v>
       </c>
       <c r="D256">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.3">
+        <v>526</v>
+      </c>
+      <c r="E256">
+        <v>485</v>
+      </c>
+      <c r="F256">
+        <v>588</v>
+      </c>
+      <c r="G256">
+        <f>2/0.826</f>
+        <v>2.4213075060532687</v>
+      </c>
+      <c r="H256">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>51</v>
       </c>
       <c r="B257" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C257">
         <v>0.25700000000000001</v>
       </c>
       <c r="D257">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.3">
+        <v>465</v>
+      </c>
+      <c r="E257">
+        <v>363</v>
+      </c>
+      <c r="F257">
+        <v>561</v>
+      </c>
+      <c r="G257">
+        <f>3/1.276</f>
+        <v>2.3510971786833856</v>
+      </c>
+      <c r="H257">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>51</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C258">
         <v>0.27100000000000002</v>
@@ -8186,12 +8753,12 @@
         <v>504</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>51</v>
       </c>
       <c r="B259" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C259">
         <v>0.44700000000000001</v>
@@ -8200,12 +8767,12 @@
         <v>535</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>51</v>
       </c>
       <c r="B260" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C260">
         <v>0.42899999999999999</v>
@@ -8214,12 +8781,12 @@
         <v>479</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>52</v>
       </c>
       <c r="B261" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C261">
         <v>3.7999999999999999E-2</v>
@@ -8227,13 +8794,29 @@
       <c r="D261">
         <v>9954</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E261">
+        <v>9368</v>
+      </c>
+      <c r="F261">
+        <v>10771</v>
+      </c>
+      <c r="G261">
+        <f>4/0.334</f>
+        <v>11.976047904191615</v>
+      </c>
+      <c r="H261">
+        <v>3</v>
+      </c>
+      <c r="I261" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>52</v>
       </c>
       <c r="B262" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C262">
         <v>6.5000000000000002E-2</v>
@@ -8241,13 +8824,16 @@
       <c r="D262">
         <v>10161</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="I262" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>53</v>
       </c>
       <c r="B263" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C263">
         <v>0.21099999999999999</v>
@@ -8256,54 +8842,91 @@
         <v>2705</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>53</v>
       </c>
       <c r="B264" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C264">
-        <v>0.316</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="D264">
-        <v>11255</v>
-      </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11247</v>
+      </c>
+      <c r="E264">
+        <v>4841</v>
+      </c>
+      <c r="F264">
+        <v>17302</v>
+      </c>
+      <c r="G264">
+        <f>4/8.192</f>
+        <v>0.48828125</v>
+      </c>
+      <c r="H264">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>53</v>
       </c>
       <c r="B265" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C265">
-        <v>0.42299999999999999</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D265">
-        <v>11259</v>
-      </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.3">
+        <v>11015</v>
+      </c>
+      <c r="E265">
+        <v>5417</v>
+      </c>
+      <c r="F265">
+        <v>15193</v>
+      </c>
+      <c r="G265">
+        <v>0</v>
+      </c>
+      <c r="H265">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>53</v>
       </c>
       <c r="B266" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C266">
-        <v>0.29899999999999999</v>
+        <v>0.16300000000000001</v>
       </c>
       <c r="D266">
-        <v>10870</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7057</v>
+      </c>
+      <c r="E266">
+        <v>749</v>
+      </c>
+      <c r="F266">
+        <v>12397</v>
+      </c>
+      <c r="G266">
+        <v>0</v>
+      </c>
+      <c r="H266">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>53</v>
       </c>
       <c r="B267" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C267">
         <v>9.7000000000000003E-2</v>
@@ -8312,12 +8935,12 @@
         <v>6744</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>53</v>
       </c>
       <c r="B268" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C268">
         <v>0.29199999999999998</v>
@@ -8326,54 +8949,90 @@
         <v>7107</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>54</v>
       </c>
       <c r="B269" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C269">
-        <v>2.1999999999999999E-2</v>
+        <v>0.14299999999999999</v>
       </c>
       <c r="D269">
-        <v>971</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.3">
+        <v>991</v>
+      </c>
+      <c r="E269">
+        <v>333</v>
+      </c>
+      <c r="F269">
+        <v>3058</v>
+      </c>
+      <c r="G269">
+        <v>0</v>
+      </c>
+      <c r="H269">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>54</v>
       </c>
       <c r="B270" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C270">
-        <v>0.191</v>
+        <v>0.14799999999999999</v>
       </c>
       <c r="D270">
-        <v>3581</v>
-      </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3529</v>
+      </c>
+      <c r="E270">
+        <v>969</v>
+      </c>
+      <c r="F270">
+        <v>10177</v>
+      </c>
+      <c r="G270">
+        <v>0</v>
+      </c>
+      <c r="H270">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>54</v>
       </c>
       <c r="B271" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C271">
-        <v>0.02</v>
+        <v>0.107</v>
       </c>
       <c r="D271">
-        <v>6512</v>
-      </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6658</v>
+      </c>
+      <c r="E271">
+        <v>188</v>
+      </c>
+      <c r="F271">
+        <v>9203</v>
+      </c>
+      <c r="G271">
+        <v>0</v>
+      </c>
+      <c r="H271">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>54</v>
       </c>
       <c r="B272" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C272">
         <v>3.4000000000000002E-2</v>
@@ -8382,12 +9041,12 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>54</v>
       </c>
       <c r="B273" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C273">
         <v>1.6E-2</v>
@@ -8396,12 +9055,12 @@
         <v>5959</v>
       </c>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>54</v>
       </c>
       <c r="B274" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C274">
         <v>2.1999999999999999E-2</v>
@@ -8410,54 +9069,90 @@
         <v>2857</v>
       </c>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>55</v>
       </c>
       <c r="B275" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C275">
-        <v>9.6000000000000002E-2</v>
+        <v>0.1</v>
       </c>
       <c r="D275">
-        <v>8164</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8144</v>
+      </c>
+      <c r="E275">
+        <v>3180</v>
+      </c>
+      <c r="F275">
+        <v>13014</v>
+      </c>
+      <c r="G275">
+        <v>0</v>
+      </c>
+      <c r="H275">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>55</v>
       </c>
       <c r="B276" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C276">
         <v>6.2E-2</v>
       </c>
       <c r="D276">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6759</v>
+      </c>
+      <c r="E276">
+        <v>3324</v>
+      </c>
+      <c r="F276">
+        <v>8799</v>
+      </c>
+      <c r="G276">
+        <v>0</v>
+      </c>
+      <c r="H276">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>55</v>
       </c>
       <c r="B277" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C277">
         <v>0.05</v>
       </c>
       <c r="D277">
-        <v>8214</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.3">
+        <v>7793</v>
+      </c>
+      <c r="E277">
+        <v>4513</v>
+      </c>
+      <c r="F277">
+        <v>9629</v>
+      </c>
+      <c r="G277">
+        <v>0</v>
+      </c>
+      <c r="H277">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>55</v>
       </c>
       <c r="B278" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C278">
         <v>0.17499999999999999</v>
@@ -8466,12 +9161,12 @@
         <v>8525</v>
       </c>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>55</v>
       </c>
       <c r="B279" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C279">
         <v>0.154</v>
@@ -8480,12 +9175,12 @@
         <v>9374</v>
       </c>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>55</v>
       </c>
       <c r="B280" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C280">
         <v>0.124</v>
@@ -8494,82 +9189,154 @@
         <v>8763</v>
       </c>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>56</v>
       </c>
       <c r="B281" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C281">
         <v>1.714</v>
       </c>
       <c r="D281">
-        <v>10908</v>
-      </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15562</v>
+      </c>
+      <c r="E281">
+        <v>8455</v>
+      </c>
+      <c r="F281">
+        <v>22050</v>
+      </c>
+      <c r="G281">
+        <v>0</v>
+      </c>
+      <c r="H281">
+        <v>4</v>
+      </c>
+      <c r="I281" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>56</v>
       </c>
       <c r="B282" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C282">
         <v>1.1160000000000001</v>
       </c>
       <c r="D282">
-        <v>15658</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15665</v>
+      </c>
+      <c r="E282">
+        <v>8182</v>
+      </c>
+      <c r="F282">
+        <v>22050</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="H282">
+        <v>4</v>
+      </c>
+      <c r="I282" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>56</v>
       </c>
       <c r="B283" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C283">
         <v>1.155</v>
       </c>
       <c r="D283">
-        <v>15550</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15587</v>
+      </c>
+      <c r="E283">
+        <v>6088</v>
+      </c>
+      <c r="F283">
+        <v>22050</v>
+      </c>
+      <c r="G283">
+        <v>0</v>
+      </c>
+      <c r="H283">
+        <v>4</v>
+      </c>
+      <c r="I283" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>56</v>
       </c>
       <c r="B284" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C284">
         <v>2.1840000000000002</v>
       </c>
       <c r="D284">
-        <v>15642</v>
-      </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.3">
+        <v>15759</v>
+      </c>
+      <c r="E284">
+        <v>12406</v>
+      </c>
+      <c r="F284">
+        <v>22050</v>
+      </c>
+      <c r="G284">
+        <v>0</v>
+      </c>
+      <c r="H284">
+        <v>4</v>
+      </c>
+      <c r="I284" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>57</v>
       </c>
       <c r="B285" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C285">
         <v>10</v>
       </c>
       <c r="D285">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.3">
+        <v>350</v>
+      </c>
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>584</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="H285">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>57</v>
       </c>
       <c r="B286" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C286">
         <v>10</v>
@@ -8577,27 +9344,51 @@
       <c r="D286">
         <v>200</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E286">
+        <v>0</v>
+      </c>
+      <c r="F286">
+        <v>381</v>
+      </c>
+      <c r="G286">
+        <v>0</v>
+      </c>
+      <c r="H286">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>57</v>
       </c>
       <c r="B287" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C287">
         <v>10</v>
       </c>
       <c r="D287">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.3">
+        <v>279</v>
+      </c>
+      <c r="E287">
+        <v>0</v>
+      </c>
+      <c r="F287">
+        <v>796</v>
+      </c>
+      <c r="G287">
+        <v>0</v>
+      </c>
+      <c r="H287">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>57</v>
       </c>
       <c r="B288" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C288">
         <v>10</v>
@@ -8606,12 +9397,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>57</v>
       </c>
       <c r="B289" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C289">
         <v>6.5529999999999999</v>
@@ -8620,12 +9411,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>57</v>
       </c>
       <c r="B290" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C290">
         <v>6.2149999999999999</v>
@@ -8634,12 +9425,12 @@
         <v>200</v>
       </c>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>58</v>
       </c>
       <c r="B291" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C291">
         <v>0.16900000000000001</v>
@@ -8647,13 +9438,25 @@
       <c r="D291">
         <v>14984</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E291">
+        <v>960</v>
+      </c>
+      <c r="F291">
+        <v>15721</v>
+      </c>
+      <c r="G291">
+        <v>0</v>
+      </c>
+      <c r="H291">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>58</v>
       </c>
       <c r="B292" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C292">
         <v>0.4</v>
@@ -8662,40 +9465,64 @@
         <v>13513</v>
       </c>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>58</v>
       </c>
       <c r="B293" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C293">
-        <v>0.17100000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="D293">
-        <v>9936</v>
-      </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9951</v>
+      </c>
+      <c r="E293">
+        <v>8552</v>
+      </c>
+      <c r="F293">
+        <v>11317</v>
+      </c>
+      <c r="G293">
+        <v>0</v>
+      </c>
+      <c r="H293">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>58</v>
       </c>
       <c r="B294" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C294">
         <v>0.62</v>
       </c>
       <c r="D294">
-        <v>8065</v>
-      </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.3">
+        <v>8049</v>
+      </c>
+      <c r="E294">
+        <v>6916</v>
+      </c>
+      <c r="F294">
+        <v>10104</v>
+      </c>
+      <c r="G294">
+        <v>0</v>
+      </c>
+      <c r="H294">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>58</v>
       </c>
       <c r="B295" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C295">
         <v>0.16</v>
@@ -8704,12 +9531,12 @@
         <v>11142</v>
       </c>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>58</v>
       </c>
       <c r="B296" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C296">
         <v>0.46200000000000002</v>
@@ -8718,40 +9545,64 @@
         <v>7995</v>
       </c>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>59</v>
       </c>
       <c r="B297" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C297">
         <v>1.407</v>
       </c>
       <c r="D297">
-        <v>4365</v>
-      </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4314</v>
+      </c>
+      <c r="E297">
+        <v>218</v>
+      </c>
+      <c r="F297">
+        <v>8143</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="H297">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>59</v>
       </c>
       <c r="B298" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C298">
         <v>0.69599999999999995</v>
       </c>
       <c r="D298">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1256</v>
+      </c>
+      <c r="E298">
+        <v>201</v>
+      </c>
+      <c r="F298">
+        <v>8084</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="H298">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>59</v>
       </c>
       <c r="B299" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C299">
         <v>0.4</v>
@@ -8759,13 +9610,25 @@
       <c r="D299">
         <v>2075</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E299">
+        <v>165</v>
+      </c>
+      <c r="F299">
+        <v>8143</v>
+      </c>
+      <c r="G299">
+        <v>0</v>
+      </c>
+      <c r="H299">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>59</v>
       </c>
       <c r="B300" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C300">
         <v>0.70299999999999996</v>
@@ -8774,12 +9637,12 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>59</v>
       </c>
       <c r="B301" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C301">
         <v>0.52300000000000002</v>
@@ -8788,12 +9651,12 @@
         <v>2109</v>
       </c>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>59</v>
       </c>
       <c r="B302" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C302">
         <v>0.4</v>
@@ -8802,26 +9665,39 @@
         <v>3536</v>
       </c>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>60</v>
       </c>
       <c r="B303" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C303">
         <v>0.498</v>
       </c>
       <c r="D303">
-        <v>4457</v>
-      </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4480</v>
+      </c>
+      <c r="E303">
+        <v>3598</v>
+      </c>
+      <c r="F303">
+        <v>5532</v>
+      </c>
+      <c r="G303">
+        <f>6/3.51</f>
+        <v>1.7094017094017095</v>
+      </c>
+      <c r="H303">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>60</v>
       </c>
       <c r="B304" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C304">
         <v>0.26400000000000001</v>
@@ -8830,26 +9706,38 @@
         <v>3136</v>
       </c>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>60</v>
       </c>
       <c r="B305" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C305">
         <v>0.97099999999999997</v>
       </c>
       <c r="D305">
-        <v>6652</v>
-      </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6631</v>
+      </c>
+      <c r="E305">
+        <v>6372</v>
+      </c>
+      <c r="F305">
+        <v>7840</v>
+      </c>
+      <c r="G305">
+        <v>0</v>
+      </c>
+      <c r="H305">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>60</v>
       </c>
       <c r="B306" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C306">
         <v>1.3720000000000001</v>
@@ -8858,12 +9746,12 @@
         <v>8348</v>
       </c>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>60</v>
       </c>
       <c r="B307" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C307">
         <v>1.9430000000000001</v>
@@ -8872,68 +9760,116 @@
         <v>5906</v>
       </c>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>60</v>
       </c>
       <c r="B308" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C308">
-        <v>2.1219999999999999</v>
+        <v>2.0990000000000002</v>
       </c>
       <c r="D308">
-        <v>2912</v>
-      </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2914</v>
+      </c>
+      <c r="E308">
+        <v>2131</v>
+      </c>
+      <c r="F308">
+        <v>3786</v>
+      </c>
+      <c r="G308">
+        <v>0</v>
+      </c>
+      <c r="H308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>61</v>
       </c>
       <c r="B309" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C309">
         <v>0.32100000000000001</v>
       </c>
       <c r="D309">
-        <v>10908</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.3">
+        <v>10871</v>
+      </c>
+      <c r="E309">
+        <v>3957</v>
+      </c>
+      <c r="F309">
+        <v>15289</v>
+      </c>
+      <c r="G309">
+        <v>0</v>
+      </c>
+      <c r="H309">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>61</v>
       </c>
       <c r="B310" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C310">
         <v>0.09</v>
       </c>
       <c r="D310">
-        <v>13241</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13251</v>
+      </c>
+      <c r="E310">
+        <v>4665</v>
+      </c>
+      <c r="F310">
+        <v>14370</v>
+      </c>
+      <c r="G310">
+        <v>0</v>
+      </c>
+      <c r="H310">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>61</v>
       </c>
       <c r="B311" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C311">
         <v>0.17599999999999999</v>
       </c>
       <c r="D311">
-        <v>10060</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.3">
+        <v>9981</v>
+      </c>
+      <c r="E311">
+        <v>139</v>
+      </c>
+      <c r="F311">
+        <v>21407</v>
+      </c>
+      <c r="G311">
+        <v>0</v>
+      </c>
+      <c r="H311">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>61</v>
       </c>
       <c r="B312" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C312">
         <v>5.0999999999999997E-2</v>
@@ -8942,12 +9878,12 @@
         <v>9908</v>
       </c>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>61</v>
       </c>
       <c r="B313" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C313">
         <v>4.8000000000000001E-2</v>
@@ -8956,12 +9892,12 @@
         <v>10035</v>
       </c>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>61</v>
       </c>
       <c r="B314" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C314">
         <v>0.114</v>
@@ -8970,54 +9906,90 @@
         <v>10175</v>
       </c>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>62</v>
       </c>
       <c r="B315" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C315">
         <v>10</v>
       </c>
       <c r="D315">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+      <c r="E315">
+        <v>0</v>
+      </c>
+      <c r="F315">
+        <v>22050</v>
+      </c>
+      <c r="G315">
+        <v>0</v>
+      </c>
+      <c r="H315">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>62</v>
       </c>
       <c r="B316" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C316">
         <v>10</v>
       </c>
       <c r="D316">
-        <v>989</v>
-      </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1062</v>
+      </c>
+      <c r="E316">
+        <v>540</v>
+      </c>
+      <c r="F316">
+        <v>8863</v>
+      </c>
+      <c r="G316">
+        <v>0</v>
+      </c>
+      <c r="H316">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>62</v>
       </c>
       <c r="B317" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C317">
         <v>10</v>
       </c>
       <c r="D317">
-        <v>4779</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4785</v>
+      </c>
+      <c r="E317">
+        <v>3496</v>
+      </c>
+      <c r="F317">
+        <v>22050</v>
+      </c>
+      <c r="G317">
+        <v>0</v>
+      </c>
+      <c r="H317">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>62</v>
       </c>
       <c r="B318" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C318">
         <v>10</v>
@@ -9026,12 +9998,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>62</v>
       </c>
       <c r="B319" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C319">
         <v>10</v>
@@ -9040,12 +10012,12 @@
         <v>832</v>
       </c>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>62</v>
       </c>
       <c r="B320" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C320">
         <v>10</v>
@@ -9054,26 +10026,38 @@
         <v>395</v>
       </c>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>63</v>
       </c>
       <c r="B321" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C321">
         <v>0.27600000000000002</v>
       </c>
       <c r="D321">
-        <v>2801</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.3">
+        <v>2848</v>
+      </c>
+      <c r="E321">
+        <v>2171</v>
+      </c>
+      <c r="F321">
+        <v>4397</v>
+      </c>
+      <c r="G321">
+        <v>0</v>
+      </c>
+      <c r="H321">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>63</v>
       </c>
       <c r="B322" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C322">
         <v>2.5000000000000001E-2</v>
@@ -9082,26 +10066,39 @@
         <v>8877</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>63</v>
       </c>
       <c r="B323" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C323">
         <v>0.123</v>
       </c>
       <c r="D323">
-        <v>12723</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.3">
+        <v>13735</v>
+      </c>
+      <c r="E323">
+        <v>1762</v>
+      </c>
+      <c r="F323">
+        <v>22050</v>
+      </c>
+      <c r="G323">
+        <f>9/2.726</f>
+        <v>3.301540719002201</v>
+      </c>
+      <c r="H323">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>63</v>
       </c>
       <c r="B324" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C324">
         <v>1.6E-2</v>
@@ -9110,26 +10107,39 @@
         <v>14377</v>
       </c>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>63</v>
       </c>
       <c r="B325" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C325">
-        <v>1.7000000000000001E-2</v>
+        <v>2.4E-2</v>
       </c>
       <c r="D325">
-        <v>6428</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.3">
+        <v>6360</v>
+      </c>
+      <c r="E325">
+        <v>309</v>
+      </c>
+      <c r="F325">
+        <v>7962</v>
+      </c>
+      <c r="G325">
+        <f>7/0.294</f>
+        <v>23.80952380952381</v>
+      </c>
+      <c r="H325">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>63</v>
       </c>
       <c r="B326" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C326">
         <v>4.8000000000000001E-2</v>
@@ -9138,12 +10148,12 @@
         <v>6181</v>
       </c>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>64</v>
       </c>
       <c r="B327" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C327">
         <v>1.4E-2</v>
@@ -9152,40 +10162,64 @@
         <v>670</v>
       </c>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>64</v>
       </c>
       <c r="B328" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C328">
-        <v>1.4999999999999999E-2</v>
+        <v>6.9000000000000006E-2</v>
       </c>
       <c r="D328">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.3">
+        <v>665</v>
+      </c>
+      <c r="E328">
+        <v>456</v>
+      </c>
+      <c r="F328">
+        <v>22050</v>
+      </c>
+      <c r="G328">
+        <v>0</v>
+      </c>
+      <c r="H328">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>64</v>
       </c>
       <c r="B329" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C329">
-        <v>1.6E-2</v>
+        <v>8.4000000000000005E-2</v>
       </c>
       <c r="D329">
-        <v>6528</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.3">
+        <v>530</v>
+      </c>
+      <c r="E329">
+        <v>519</v>
+      </c>
+      <c r="F329">
+        <v>19876</v>
+      </c>
+      <c r="G329">
+        <v>0</v>
+      </c>
+      <c r="H329">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>64</v>
       </c>
       <c r="B330" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C330">
         <v>1.7000000000000001E-2</v>
@@ -9194,12 +10228,12 @@
         <v>507</v>
       </c>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>64</v>
       </c>
       <c r="B331" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C331">
         <v>1.7999999999999999E-2</v>
@@ -9208,26 +10242,38 @@
         <v>2188</v>
       </c>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>64</v>
       </c>
       <c r="B332" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C332">
-        <v>1.4999999999999999E-2</v>
+        <v>5.3999999999999999E-2</v>
       </c>
       <c r="D332">
-        <v>2254</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1779</v>
+      </c>
+      <c r="E332">
+        <v>757</v>
+      </c>
+      <c r="F332">
+        <v>11621</v>
+      </c>
+      <c r="G332">
+        <v>0</v>
+      </c>
+      <c r="H332">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>65</v>
       </c>
       <c r="B333" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C333">
         <v>0.25900000000000001</v>
@@ -9236,12 +10282,12 @@
         <v>15469</v>
       </c>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>65</v>
       </c>
       <c r="B334" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C334">
         <v>0.31</v>
@@ -9250,12 +10296,12 @@
         <v>15327</v>
       </c>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>65</v>
       </c>
       <c r="B335" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C335">
         <v>0.23499999999999999</v>
@@ -9264,12 +10310,12 @@
         <v>16757</v>
       </c>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>66</v>
       </c>
       <c r="B336" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C336">
         <v>0.38300000000000001</v>
@@ -9283,7 +10329,7 @@
         <v>66</v>
       </c>
       <c r="B337" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C337">
         <v>0.373</v>
@@ -9297,7 +10343,7 @@
         <v>66</v>
       </c>
       <c r="B338" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="C338">
         <v>0.38300000000000001</v>
@@ -9311,7 +10357,7 @@
         <v>66</v>
       </c>
       <c r="B339" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C339">
         <v>0.42199999999999999</v>
@@ -9325,7 +10371,7 @@
         <v>66</v>
       </c>
       <c r="B340" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C340">
         <v>0.33</v>
@@ -9339,7 +10385,7 @@
         <v>66</v>
       </c>
       <c r="B341" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C341">
         <v>0.61199999999999999</v>
@@ -9353,7 +10399,7 @@
         <v>67</v>
       </c>
       <c r="B342" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C342">
         <v>0.95499999999999996</v>
@@ -9367,7 +10413,7 @@
         <v>68</v>
       </c>
       <c r="B343" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C343">
         <v>0.158</v>
@@ -9381,7 +10427,7 @@
         <v>68</v>
       </c>
       <c r="B344" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C344">
         <v>0.19800000000000001</v>
@@ -9395,7 +10441,7 @@
         <v>68</v>
       </c>
       <c r="B345" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C345">
         <v>0.22700000000000001</v>
@@ -9409,7 +10455,7 @@
         <v>68</v>
       </c>
       <c r="B346" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C346">
         <v>5.6000000000000001E-2</v>
@@ -9423,7 +10469,7 @@
         <v>68</v>
       </c>
       <c r="B347" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C347">
         <v>0.38400000000000001</v>
@@ -9437,7 +10483,7 @@
         <v>68</v>
       </c>
       <c r="B348" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C348">
         <v>0.20799999999999999</v>
@@ -9451,7 +10497,7 @@
         <v>69</v>
       </c>
       <c r="B349" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C349">
         <v>0.34899999999999998</v>
@@ -9465,7 +10511,7 @@
         <v>69</v>
       </c>
       <c r="B350" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C350">
         <v>0.13300000000000001</v>
@@ -9479,7 +10525,7 @@
         <v>69</v>
       </c>
       <c r="B351" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C351">
         <v>0.372</v>
@@ -9493,7 +10539,7 @@
         <v>69</v>
       </c>
       <c r="B352" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C352">
         <v>0.32900000000000001</v>
@@ -9507,7 +10553,7 @@
         <v>69</v>
       </c>
       <c r="B353" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C353">
         <v>0.41699999999999998</v>
@@ -9521,7 +10567,7 @@
         <v>69</v>
       </c>
       <c r="B354" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C354">
         <v>0.68700000000000006</v>
@@ -9535,7 +10581,7 @@
         <v>70</v>
       </c>
       <c r="B355" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C355">
         <v>2.5000000000000001E-2</v>
@@ -9549,7 +10595,7 @@
         <v>70</v>
       </c>
       <c r="B356" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C356">
         <v>2.4E-2</v>
@@ -9563,7 +10609,7 @@
         <v>70</v>
       </c>
       <c r="B357" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C357">
         <v>2.5999999999999999E-2</v>
@@ -9577,7 +10623,7 @@
         <v>70</v>
       </c>
       <c r="B358" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C358">
         <v>2.4E-2</v>
@@ -9591,7 +10637,7 @@
         <v>70</v>
       </c>
       <c r="B359" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C359">
         <v>3.3000000000000002E-2</v>
@@ -9605,7 +10651,7 @@
         <v>71</v>
       </c>
       <c r="B360" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C360">
         <v>0.254</v>
@@ -9619,7 +10665,7 @@
         <v>71</v>
       </c>
       <c r="B361" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C361">
         <v>0.17699999999999999</v>
@@ -9633,7 +10679,7 @@
         <v>71</v>
       </c>
       <c r="B362" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C362">
         <v>0.26100000000000001</v>
@@ -9647,7 +10693,7 @@
         <v>71</v>
       </c>
       <c r="B363" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C363">
         <v>0.16300000000000001</v>
@@ -9661,7 +10707,7 @@
         <v>71</v>
       </c>
       <c r="B364" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C364">
         <v>0.17799999999999999</v>
@@ -9675,7 +10721,7 @@
         <v>71</v>
       </c>
       <c r="B365" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="C365">
         <v>7.6999999999999999E-2</v>
@@ -9689,7 +10735,7 @@
         <v>72</v>
       </c>
       <c r="B366" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C366">
         <v>0.216</v>
@@ -9703,7 +10749,7 @@
         <v>72</v>
       </c>
       <c r="B367" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C367">
         <v>0.20100000000000001</v>
@@ -9717,7 +10763,7 @@
         <v>72</v>
       </c>
       <c r="B368" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C368">
         <v>8.5000000000000006E-2</v>
@@ -9731,7 +10777,7 @@
         <v>72</v>
       </c>
       <c r="B369" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C369">
         <v>0.13700000000000001</v>
@@ -9745,7 +10791,7 @@
         <v>72</v>
       </c>
       <c r="B370" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C370">
         <v>0.111</v>
@@ -9759,7 +10805,7 @@
         <v>72</v>
       </c>
       <c r="B371" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C371">
         <v>6.2E-2</v>
@@ -9773,7 +10819,7 @@
         <v>73</v>
       </c>
       <c r="B372" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C372">
         <v>0.67600000000000005</v>
@@ -9787,7 +10833,7 @@
         <v>73</v>
       </c>
       <c r="B373" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C373">
         <v>2.5550000000000002</v>
@@ -9801,7 +10847,7 @@
         <v>73</v>
       </c>
       <c r="B374" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C374">
         <v>0.13700000000000001</v>
@@ -9815,7 +10861,7 @@
         <v>73</v>
       </c>
       <c r="B375" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C375">
         <v>0.53700000000000003</v>
@@ -9829,7 +10875,7 @@
         <v>73</v>
       </c>
       <c r="B376" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C376">
         <v>0.13800000000000001</v>
@@ -9843,7 +10889,7 @@
         <v>73</v>
       </c>
       <c r="B377" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C377">
         <v>0.71299999999999997</v>
@@ -9857,7 +10903,7 @@
         <v>74</v>
       </c>
       <c r="B378" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C378">
         <v>3.5190000000000001</v>
@@ -9871,7 +10917,7 @@
         <v>74</v>
       </c>
       <c r="B379" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C379">
         <v>10</v>
@@ -9885,7 +10931,7 @@
         <v>74</v>
       </c>
       <c r="B380" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C380">
         <v>10</v>
@@ -9899,7 +10945,7 @@
         <v>74</v>
       </c>
       <c r="B381" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C381">
         <v>10</v>
@@ -9913,7 +10959,7 @@
         <v>74</v>
       </c>
       <c r="B382" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C382">
         <v>10</v>
@@ -9927,7 +10973,7 @@
         <v>74</v>
       </c>
       <c r="B383" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C383">
         <v>10</v>
@@ -9941,7 +10987,7 @@
         <v>75</v>
       </c>
       <c r="B384" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C384">
         <v>2.5000000000000001E-2</v>
@@ -9955,7 +11001,7 @@
         <v>75</v>
       </c>
       <c r="B385" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C385">
         <v>2.1999999999999999E-2</v>
@@ -9969,7 +11015,7 @@
         <v>75</v>
       </c>
       <c r="B386" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C386">
         <v>1.7999999999999999E-2</v>
@@ -9983,7 +11029,7 @@
         <v>75</v>
       </c>
       <c r="B387" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C387">
         <v>1.4999999999999999E-2</v>
@@ -9997,7 +11043,7 @@
         <v>75</v>
       </c>
       <c r="B388" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C388">
         <v>1.6E-2</v>
@@ -10011,7 +11057,7 @@
         <v>75</v>
       </c>
       <c r="B389" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C389">
         <v>1.9E-2</v>
@@ -10025,7 +11071,7 @@
         <v>76</v>
       </c>
       <c r="B390" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C390">
         <v>0.13600000000000001</v>
@@ -10039,7 +11085,7 @@
         <v>76</v>
       </c>
       <c r="B391" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C391">
         <v>0.151</v>
@@ -10053,7 +11099,7 @@
         <v>76</v>
       </c>
       <c r="B392" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C392">
         <v>0.11600000000000001</v>
@@ -10067,7 +11113,7 @@
         <v>76</v>
       </c>
       <c r="B393" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C393">
         <v>0.127</v>
@@ -10081,7 +11127,7 @@
         <v>77</v>
       </c>
       <c r="B394" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C394">
         <v>5.7000000000000002E-2</v>
@@ -10095,7 +11141,7 @@
         <v>77</v>
       </c>
       <c r="B395" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C395">
         <v>2.3E-2</v>
@@ -10109,7 +11155,7 @@
         <v>77</v>
       </c>
       <c r="B396" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C396">
         <v>2.5000000000000001E-2</v>
@@ -10123,7 +11169,7 @@
         <v>77</v>
       </c>
       <c r="B397" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C397">
         <v>3.9E-2</v>
@@ -10137,7 +11183,7 @@
         <v>77</v>
       </c>
       <c r="B398" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C398">
         <v>8.5000000000000006E-2</v>
@@ -10151,7 +11197,7 @@
         <v>77</v>
       </c>
       <c r="B399" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C399">
         <v>7.0999999999999994E-2</v>
@@ -10165,7 +11211,7 @@
         <v>78</v>
       </c>
       <c r="B400" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C400">
         <v>10</v>
@@ -10179,7 +11225,7 @@
         <v>78</v>
       </c>
       <c r="B401" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C401">
         <v>10</v>
@@ -10193,7 +11239,7 @@
         <v>78</v>
       </c>
       <c r="B402" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C402">
         <v>10</v>
@@ -10207,7 +11253,7 @@
         <v>78</v>
       </c>
       <c r="B403" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C403">
         <v>10</v>
@@ -10221,7 +11267,7 @@
         <v>78</v>
       </c>
       <c r="B404" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C404">
         <v>10</v>
@@ -10235,7 +11281,7 @@
         <v>78</v>
       </c>
       <c r="B405" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C405">
         <v>10</v>
@@ -10249,7 +11295,7 @@
         <v>79</v>
       </c>
       <c r="B406" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C406">
         <v>10</v>
@@ -10263,7 +11309,7 @@
         <v>79</v>
       </c>
       <c r="B407" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C407">
         <v>4.0250000000000004</v>
@@ -10277,7 +11323,7 @@
         <v>79</v>
       </c>
       <c r="B408" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C408">
         <v>6.2069999999999999</v>
@@ -10291,7 +11337,7 @@
         <v>79</v>
       </c>
       <c r="B409" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C409">
         <v>1.4590000000000001</v>
@@ -10305,7 +11351,7 @@
         <v>79</v>
       </c>
       <c r="B410" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C410">
         <v>2.9089999999999998</v>
@@ -10319,7 +11365,7 @@
         <v>80</v>
       </c>
       <c r="B411" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C411">
         <v>1.8879999999999999</v>
@@ -10333,7 +11379,7 @@
         <v>80</v>
       </c>
       <c r="B412" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C412">
         <v>4.0410000000000004</v>
@@ -10347,7 +11393,7 @@
         <v>80</v>
       </c>
       <c r="B413" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C413">
         <v>2.8029999999999999</v>
@@ -10361,7 +11407,7 @@
         <v>80</v>
       </c>
       <c r="B414" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C414">
         <v>4.0720000000000001</v>
@@ -10375,7 +11421,7 @@
         <v>80</v>
       </c>
       <c r="B415" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C415">
         <v>0.34599999999999997</v>
@@ -10389,7 +11435,7 @@
         <v>80</v>
       </c>
       <c r="B416" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C416">
         <v>3.6579999999999999</v>
@@ -10403,7 +11449,7 @@
         <v>81</v>
       </c>
       <c r="B417" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C417">
         <v>2.044</v>
@@ -10417,7 +11463,7 @@
         <v>82</v>
       </c>
       <c r="B418" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C418">
         <v>0.32200000000000001</v>
@@ -10431,7 +11477,7 @@
         <v>82</v>
       </c>
       <c r="B419" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C419">
         <v>0.125</v>
@@ -10445,7 +11491,7 @@
         <v>82</v>
       </c>
       <c r="B420" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C420">
         <v>0.05</v>
@@ -10459,7 +11505,7 @@
         <v>82</v>
       </c>
       <c r="B421" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C421">
         <v>0.38600000000000001</v>
@@ -10473,7 +11519,7 @@
         <v>82</v>
       </c>
       <c r="B422" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C422">
         <v>1.423</v>
@@ -10487,7 +11533,7 @@
         <v>82</v>
       </c>
       <c r="B423" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C423">
         <v>0.51700000000000002</v>
@@ -10501,7 +11547,7 @@
         <v>83</v>
       </c>
       <c r="B424" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C424">
         <v>0.69199999999999995</v>
@@ -10515,7 +11561,7 @@
         <v>83</v>
       </c>
       <c r="B425" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C425">
         <v>0.40100000000000002</v>
@@ -10529,7 +11575,7 @@
         <v>83</v>
       </c>
       <c r="B426" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C426">
         <v>0.50900000000000001</v>
@@ -10543,7 +11589,7 @@
         <v>84</v>
       </c>
       <c r="B427" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C427">
         <v>1.224</v>
@@ -10557,7 +11603,7 @@
         <v>84</v>
       </c>
       <c r="B428" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C428">
         <v>1.675</v>
@@ -10571,7 +11617,7 @@
         <v>84</v>
       </c>
       <c r="B429" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C429">
         <v>3.153</v>
@@ -10585,7 +11631,7 @@
         <v>84</v>
       </c>
       <c r="B430" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C430">
         <v>1.381</v>
@@ -10599,7 +11645,7 @@
         <v>84</v>
       </c>
       <c r="B431" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C431">
         <v>1.1160000000000001</v>
@@ -10613,7 +11659,7 @@
         <v>84</v>
       </c>
       <c r="B432" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C432">
         <v>1.6319999999999999</v>
@@ -10627,7 +11673,7 @@
         <v>85</v>
       </c>
       <c r="B433" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C433">
         <v>6.2E-2</v>
@@ -10641,7 +11687,7 @@
         <v>85</v>
       </c>
       <c r="B434" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C434">
         <v>4.4999999999999998E-2</v>
@@ -10655,7 +11701,7 @@
         <v>85</v>
       </c>
       <c r="B435" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C435">
         <v>0.16500000000000001</v>
@@ -10669,7 +11715,7 @@
         <v>85</v>
       </c>
       <c r="B436" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C436">
         <v>0.38600000000000001</v>
@@ -10683,7 +11729,7 @@
         <v>85</v>
       </c>
       <c r="B437" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C437">
         <v>0.438</v>
@@ -10697,7 +11743,7 @@
         <v>85</v>
       </c>
       <c r="B438" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C438">
         <v>0.18</v>
@@ -10711,7 +11757,7 @@
         <v>86</v>
       </c>
       <c r="B439" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C439">
         <v>2.431</v>
@@ -10725,7 +11771,7 @@
         <v>87</v>
       </c>
       <c r="B440" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C440">
         <v>1.41</v>
@@ -10739,7 +11785,7 @@
         <v>87</v>
       </c>
       <c r="B441" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C441">
         <v>1.3779999999999999</v>
@@ -10753,7 +11799,7 @@
         <v>87</v>
       </c>
       <c r="B442" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C442">
         <v>1.2989999999999999</v>
@@ -10767,7 +11813,7 @@
         <v>87</v>
       </c>
       <c r="B443" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C443">
         <v>1.4810000000000001</v>
@@ -10781,7 +11827,7 @@
         <v>87</v>
       </c>
       <c r="B444" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C444">
         <v>1.6220000000000001</v>
@@ -10795,7 +11841,7 @@
         <v>87</v>
       </c>
       <c r="B445" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C445">
         <v>0.68200000000000005</v>
@@ -10809,7 +11855,7 @@
         <v>88</v>
       </c>
       <c r="B446" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C446">
         <v>0.02</v>
@@ -10823,7 +11869,7 @@
         <v>88</v>
       </c>
       <c r="B447" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C447">
         <v>2.3E-2</v>
@@ -10837,7 +11883,7 @@
         <v>88</v>
       </c>
       <c r="B448" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C448">
         <v>3.5000000000000003E-2</v>
@@ -10851,7 +11897,7 @@
         <v>88</v>
       </c>
       <c r="B449" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C449">
         <v>0.04</v>
@@ -10865,7 +11911,7 @@
         <v>88</v>
       </c>
       <c r="B450" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C450">
         <v>3.9E-2</v>
@@ -10879,7 +11925,7 @@
         <v>88</v>
       </c>
       <c r="B451" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C451">
         <v>2.5000000000000001E-2</v>
@@ -10893,7 +11939,7 @@
         <v>89</v>
       </c>
       <c r="B452" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C452">
         <v>0.44400000000000001</v>
@@ -10907,7 +11953,7 @@
         <v>89</v>
       </c>
       <c r="B453" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C453">
         <v>1.028</v>
@@ -10921,7 +11967,7 @@
         <v>89</v>
       </c>
       <c r="B454" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C454">
         <v>0.35699999999999998</v>
@@ -10935,7 +11981,7 @@
         <v>89</v>
       </c>
       <c r="B455" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C455">
         <v>0.84599999999999997</v>
@@ -10949,7 +11995,7 @@
         <v>89</v>
       </c>
       <c r="B456" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C456">
         <v>0.753</v>
@@ -10963,7 +12009,7 @@
         <v>89</v>
       </c>
       <c r="B457" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C457">
         <v>1.488</v>
@@ -10977,7 +12023,7 @@
         <v>90</v>
       </c>
       <c r="B458" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C458">
         <v>0.29299999999999998</v>
@@ -10991,7 +12037,7 @@
         <v>90</v>
       </c>
       <c r="B459" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C459">
         <v>0.21099999999999999</v>
@@ -11005,7 +12051,7 @@
         <v>90</v>
       </c>
       <c r="B460" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C460">
         <v>0.32100000000000001</v>
@@ -11019,7 +12065,7 @@
         <v>90</v>
       </c>
       <c r="B461" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C461">
         <v>2.7E-2</v>
@@ -11033,7 +12079,7 @@
         <v>90</v>
       </c>
       <c r="B462" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C462">
         <v>0.48499999999999999</v>
@@ -11047,7 +12093,7 @@
         <v>90</v>
       </c>
       <c r="B463" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C463">
         <v>0.19500000000000001</v>
@@ -11061,7 +12107,7 @@
         <v>91</v>
       </c>
       <c r="B464" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C464">
         <v>0.21299999999999999</v>
@@ -11075,7 +12121,7 @@
         <v>92</v>
       </c>
       <c r="B465" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C465">
         <v>0.82099999999999995</v>
@@ -11089,7 +12135,7 @@
         <v>92</v>
       </c>
       <c r="B466" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C466">
         <v>0.76800000000000002</v>
@@ -11103,7 +12149,7 @@
         <v>92</v>
       </c>
       <c r="B467" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C467">
         <v>1.161</v>
@@ -11117,7 +12163,7 @@
         <v>92</v>
       </c>
       <c r="B468" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C468">
         <v>0.84399999999999997</v>
@@ -11131,7 +12177,7 @@
         <v>92</v>
       </c>
       <c r="B469" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C469">
         <v>0.86099999999999999</v>
@@ -11145,7 +12191,7 @@
         <v>92</v>
       </c>
       <c r="B470" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C470">
         <v>0.80400000000000005</v>
@@ -11159,7 +12205,7 @@
         <v>93</v>
       </c>
       <c r="B471" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C471">
         <v>0.33500000000000002</v>
@@ -11173,7 +12219,7 @@
         <v>93</v>
       </c>
       <c r="B472" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C472">
         <v>0.106</v>
@@ -11187,7 +12233,7 @@
         <v>93</v>
       </c>
       <c r="B473" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="C473">
         <v>0.157</v>
@@ -11201,7 +12247,7 @@
         <v>93</v>
       </c>
       <c r="B474" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C474">
         <v>9.6000000000000002E-2</v>
@@ -11215,7 +12261,7 @@
         <v>93</v>
       </c>
       <c r="B475" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C475">
         <v>5.5E-2</v>
@@ -11229,7 +12275,7 @@
         <v>93</v>
       </c>
       <c r="B476" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C476">
         <v>6.8000000000000005E-2</v>
@@ -11243,7 +12289,7 @@
         <v>94</v>
       </c>
       <c r="B477" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C477">
         <v>0.16800000000000001</v>
@@ -11257,7 +12303,7 @@
         <v>94</v>
       </c>
       <c r="B478" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="C478">
         <v>0.44700000000000001</v>
@@ -11271,7 +12317,7 @@
         <v>94</v>
       </c>
       <c r="B479" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C479">
         <v>0.18099999999999999</v>
@@ -11285,7 +12331,7 @@
         <v>94</v>
       </c>
       <c r="B480" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="C480">
         <v>0.23899999999999999</v>
@@ -11299,7 +12345,7 @@
         <v>94</v>
       </c>
       <c r="B481" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="C481">
         <v>5.6000000000000001E-2</v>
@@ -11313,7 +12359,7 @@
         <v>94</v>
       </c>
       <c r="B482" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="C482">
         <v>0.126</v>
@@ -11327,7 +12373,7 @@
         <v>95</v>
       </c>
       <c r="B483" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="C483">
         <v>0.61699999999999999</v>
@@ -11341,7 +12387,7 @@
         <v>95</v>
       </c>
       <c r="B484" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C484">
         <v>0.14199999999999999</v>
@@ -11355,7 +12401,7 @@
         <v>95</v>
       </c>
       <c r="B485" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="C485">
         <v>0.39</v>
@@ -11369,7 +12415,7 @@
         <v>95</v>
       </c>
       <c r="B486" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="C486">
         <v>2.351</v>
@@ -11383,7 +12429,7 @@
         <v>95</v>
       </c>
       <c r="B487" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C487">
         <v>1.0920000000000001</v>
@@ -11397,7 +12443,7 @@
         <v>95</v>
       </c>
       <c r="B488" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C488">
         <v>1.21</v>
@@ -11411,7 +12457,7 @@
         <v>96</v>
       </c>
       <c r="B489" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="C489">
         <v>0.33200000000000002</v>
@@ -11425,7 +12471,7 @@
         <v>97</v>
       </c>
       <c r="B490" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="C490">
         <v>0.112</v>
@@ -11439,7 +12485,7 @@
         <v>98</v>
       </c>
       <c r="B491" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C491">
         <v>0.17199999999999999</v>
@@ -11453,7 +12499,7 @@
         <v>98</v>
       </c>
       <c r="B492" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="C492">
         <v>5.1999999999999998E-2</v>
@@ -11467,7 +12513,7 @@
         <v>98</v>
       </c>
       <c r="B493" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C493">
         <v>0.111</v>
@@ -11481,7 +12527,7 @@
         <v>98</v>
       </c>
       <c r="B494" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="C494">
         <v>0.20100000000000001</v>
@@ -11495,7 +12541,7 @@
         <v>98</v>
       </c>
       <c r="B495" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C495">
         <v>7.0999999999999994E-2</v>
@@ -11509,7 +12555,7 @@
         <v>98</v>
       </c>
       <c r="B496" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="C496">
         <v>7.6999999999999999E-2</v>
@@ -11523,7 +12569,7 @@
         <v>99</v>
       </c>
       <c r="B497" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="C497">
         <v>0.17</v>
@@ -11537,7 +12583,7 @@
         <v>99</v>
       </c>
       <c r="B498" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C498">
         <v>0.104</v>
@@ -11551,7 +12597,7 @@
         <v>99</v>
       </c>
       <c r="B499" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C499">
         <v>0.126</v>
@@ -11565,7 +12611,7 @@
         <v>100</v>
       </c>
       <c r="B500" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C500">
         <v>0.2</v>
@@ -11579,7 +12625,7 @@
         <v>100</v>
       </c>
       <c r="B501" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C501">
         <v>0.22800000000000001</v>
@@ -11593,7 +12639,7 @@
         <v>100</v>
       </c>
       <c r="B502" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C502">
         <v>0.182</v>
@@ -11607,7 +12653,7 @@
         <v>100</v>
       </c>
       <c r="B503" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C503">
         <v>0.23100000000000001</v>
@@ -11621,7 +12667,7 @@
         <v>100</v>
       </c>
       <c r="B504" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C504">
         <v>0.20200000000000001</v>
@@ -11635,7 +12681,7 @@
         <v>100</v>
       </c>
       <c r="B505" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C505">
         <v>0.23699999999999999</v>
@@ -11649,7 +12695,7 @@
         <v>101</v>
       </c>
       <c r="B506" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C506">
         <v>0.252</v>
@@ -11663,7 +12709,7 @@
         <v>101</v>
       </c>
       <c r="B507" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C507">
         <v>0.13500000000000001</v>
@@ -11677,7 +12723,7 @@
         <v>101</v>
       </c>
       <c r="B508" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C508">
         <v>0.13500000000000001</v>
@@ -11691,7 +12737,7 @@
         <v>101</v>
       </c>
       <c r="B509" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C509">
         <v>8.2000000000000003E-2</v>
@@ -11705,7 +12751,7 @@
         <v>101</v>
       </c>
       <c r="B510" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C510">
         <v>0.05</v>
@@ -11719,7 +12765,7 @@
         <v>101</v>
       </c>
       <c r="B511" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C511">
         <v>0.17399999999999999</v>
@@ -11733,7 +12779,7 @@
         <v>102</v>
       </c>
       <c r="B512" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C512">
         <v>0.94799999999999995</v>
@@ -11747,7 +12793,7 @@
         <v>102</v>
       </c>
       <c r="B513" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C513">
         <v>0.246</v>
@@ -11761,7 +12807,7 @@
         <v>103</v>
       </c>
       <c r="B514" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C514">
         <v>0.14699999999999999</v>
@@ -11775,7 +12821,7 @@
         <v>103</v>
       </c>
       <c r="B515" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C515">
         <v>0.16300000000000001</v>
@@ -11789,7 +12835,7 @@
         <v>103</v>
       </c>
       <c r="B516" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="C516">
         <v>0.125</v>
@@ -11803,7 +12849,7 @@
         <v>103</v>
       </c>
       <c r="B517" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C517">
         <v>0.114</v>
@@ -11817,7 +12863,7 @@
         <v>103</v>
       </c>
       <c r="B518" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C518">
         <v>0.33500000000000002</v>
@@ -11831,7 +12877,7 @@
         <v>103</v>
       </c>
       <c r="B519" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="C519">
         <v>0.106</v>
@@ -11845,7 +12891,7 @@
         <v>104</v>
       </c>
       <c r="B520" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C520">
         <v>0.16600000000000001</v>
@@ -11859,7 +12905,7 @@
         <v>104</v>
       </c>
       <c r="B521" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="C521">
         <v>7.8E-2</v>
@@ -11873,7 +12919,7 @@
         <v>104</v>
       </c>
       <c r="B522" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="C522">
         <v>8.6999999999999994E-2</v>
@@ -11887,7 +12933,7 @@
         <v>104</v>
       </c>
       <c r="B523" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="C523">
         <v>0.14099999999999999</v>
@@ -11901,7 +12947,7 @@
         <v>104</v>
       </c>
       <c r="B524" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C524">
         <v>0.156</v>
@@ -11915,7 +12961,7 @@
         <v>104</v>
       </c>
       <c r="B525" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="C525">
         <v>0.14699999999999999</v>
@@ -11929,7 +12975,7 @@
         <v>105</v>
       </c>
       <c r="B526" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C526">
         <v>2.375</v>
@@ -11943,7 +12989,7 @@
         <v>105</v>
       </c>
       <c r="B527" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C527">
         <v>0.35599999999999998</v>
@@ -11957,7 +13003,7 @@
         <v>105</v>
       </c>
       <c r="B528" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C528">
         <v>0.30499999999999999</v>
@@ -11971,7 +13017,7 @@
         <v>105</v>
       </c>
       <c r="B529" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C529">
         <v>0.22900000000000001</v>
@@ -11985,7 +13031,7 @@
         <v>105</v>
       </c>
       <c r="B530" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C530">
         <v>0.32600000000000001</v>
@@ -11999,7 +13045,7 @@
         <v>105</v>
       </c>
       <c r="B531" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="C531">
         <v>0.19800000000000001</v>
@@ -12013,7 +13059,7 @@
         <v>106</v>
       </c>
       <c r="B532" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C532">
         <v>0.128</v>
@@ -12027,7 +13073,7 @@
         <v>106</v>
       </c>
       <c r="B533" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C533">
         <v>9.0999999999999998E-2</v>
@@ -12041,7 +13087,7 @@
         <v>106</v>
       </c>
       <c r="B534" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="C534">
         <v>0.122</v>
@@ -12055,7 +13101,7 @@
         <v>106</v>
       </c>
       <c r="B535" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C535">
         <v>0.11799999999999999</v>
@@ -12069,7 +13115,7 @@
         <v>106</v>
       </c>
       <c r="B536" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C536">
         <v>0.312</v>
@@ -12083,7 +13129,7 @@
         <v>106</v>
       </c>
       <c r="B537" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C537">
         <v>0.58099999999999996</v>
@@ -12097,7 +13143,7 @@
         <v>107</v>
       </c>
       <c r="B538" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C538">
         <v>0.70499999999999996</v>
@@ -12111,7 +13157,7 @@
         <v>107</v>
       </c>
       <c r="B539" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C539">
         <v>0.40400000000000003</v>
@@ -12125,7 +13171,7 @@
         <v>108</v>
       </c>
       <c r="B540" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C540">
         <v>6.0999999999999999E-2</v>
@@ -12139,7 +13185,7 @@
         <v>108</v>
       </c>
       <c r="B541" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C541">
         <v>8.7999999999999995E-2</v>
@@ -12153,7 +13199,7 @@
         <v>108</v>
       </c>
       <c r="B542" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C542">
         <v>0.20799999999999999</v>
@@ -12167,7 +13213,7 @@
         <v>108</v>
       </c>
       <c r="B543" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C543">
         <v>0.06</v>
@@ -12181,7 +13227,7 @@
         <v>108</v>
       </c>
       <c r="B544" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="C544">
         <v>0.17899999999999999</v>
@@ -12195,7 +13241,7 @@
         <v>108</v>
       </c>
       <c r="B545" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C545">
         <v>0.127</v>
@@ -12209,7 +13255,7 @@
         <v>109</v>
       </c>
       <c r="B546" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C546">
         <v>5.3999999999999999E-2</v>
@@ -12223,7 +13269,7 @@
         <v>109</v>
       </c>
       <c r="B547" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="C547">
         <v>0.214</v>
@@ -12237,7 +13283,7 @@
         <v>109</v>
       </c>
       <c r="B548" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C548">
         <v>0.24299999999999999</v>
@@ -12251,7 +13297,7 @@
         <v>109</v>
       </c>
       <c r="B549" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C549">
         <v>0.14000000000000001</v>
@@ -12265,7 +13311,7 @@
         <v>109</v>
       </c>
       <c r="B550" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C550">
         <v>0.182</v>
@@ -12279,7 +13325,7 @@
         <v>109</v>
       </c>
       <c r="B551" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="C551">
         <v>0.25</v>
@@ -12293,7 +13339,7 @@
         <v>110</v>
       </c>
       <c r="B552" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C552">
         <v>3.4000000000000002E-2</v>
@@ -12307,7 +13353,7 @@
         <v>110</v>
       </c>
       <c r="B553" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C553">
         <v>7.3999999999999996E-2</v>
@@ -12321,7 +13367,7 @@
         <v>110</v>
       </c>
       <c r="B554" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C554">
         <v>0.08</v>
@@ -12335,7 +13381,7 @@
         <v>110</v>
       </c>
       <c r="B555" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="C555">
         <v>5.5E-2</v>
@@ -12349,7 +13395,7 @@
         <v>111</v>
       </c>
       <c r="B556" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="C556">
         <v>0.38400000000000001</v>
@@ -12363,7 +13409,7 @@
         <v>111</v>
       </c>
       <c r="B557" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C557">
         <v>0.04</v>
@@ -12377,7 +13423,7 @@
         <v>111</v>
       </c>
       <c r="B558" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="C558">
         <v>2.9000000000000001E-2</v>
@@ -12391,7 +13437,7 @@
         <v>111</v>
       </c>
       <c r="B559" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C559">
         <v>0.29099999999999998</v>
@@ -12405,7 +13451,7 @@
         <v>111</v>
       </c>
       <c r="B560" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C560">
         <v>0.25800000000000001</v>
@@ -12419,7 +13465,7 @@
         <v>111</v>
       </c>
       <c r="B561" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C561">
         <v>0.23</v>
@@ -12433,7 +13479,7 @@
         <v>112</v>
       </c>
       <c r="B562" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C562">
         <v>4.4740000000000002</v>
@@ -12447,7 +13493,7 @@
         <v>112</v>
       </c>
       <c r="B563" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C563">
         <v>5.4850000000000003</v>
@@ -12461,7 +13507,7 @@
         <v>112</v>
       </c>
       <c r="B564" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C564">
         <v>5.5570000000000004</v>
@@ -12475,7 +13521,7 @@
         <v>112</v>
       </c>
       <c r="B565" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C565">
         <v>5.3150000000000004</v>
@@ -12489,7 +13535,7 @@
         <v>112</v>
       </c>
       <c r="B566" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C566">
         <v>5.2370000000000001</v>
@@ -12503,7 +13549,7 @@
         <v>112</v>
       </c>
       <c r="B567" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C567">
         <v>4.7889999999999997</v>
@@ -12517,7 +13563,7 @@
         <v>113</v>
       </c>
       <c r="B568" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C568">
         <v>4.6900000000000004</v>
@@ -12531,7 +13577,7 @@
         <v>113</v>
       </c>
       <c r="B569" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="C569">
         <v>3.653</v>
@@ -12545,7 +13591,7 @@
         <v>114</v>
       </c>
       <c r="B570" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="C570">
         <v>3.738</v>
@@ -12559,7 +13605,7 @@
         <v>115</v>
       </c>
       <c r="B571" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C571">
         <v>0.56200000000000006</v>
@@ -12573,7 +13619,7 @@
         <v>115</v>
       </c>
       <c r="B572" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C572">
         <v>0.502</v>
@@ -12587,7 +13633,7 @@
         <v>115</v>
       </c>
       <c r="B573" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C573">
         <v>0.60399999999999998</v>
@@ -12601,7 +13647,7 @@
         <v>115</v>
       </c>
       <c r="B574" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C574">
         <v>0.4</v>
@@ -12615,7 +13661,7 @@
         <v>115</v>
       </c>
       <c r="B575" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C575">
         <v>0.4</v>
@@ -12629,7 +13675,7 @@
         <v>115</v>
       </c>
       <c r="B576" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C576">
         <v>0.182</v>
@@ -12643,7 +13689,7 @@
         <v>116</v>
       </c>
       <c r="B577" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C577">
         <v>0.28799999999999998</v>
@@ -12657,7 +13703,7 @@
         <v>116</v>
       </c>
       <c r="B578" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C578">
         <v>0.26</v>
@@ -12671,7 +13717,7 @@
         <v>116</v>
       </c>
       <c r="B579" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C579">
         <v>0.30199999999999999</v>
@@ -12685,7 +13731,7 @@
         <v>117</v>
       </c>
       <c r="B580" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C580">
         <v>0.48599999999999999</v>
@@ -12699,7 +13745,7 @@
         <v>118</v>
       </c>
       <c r="B581" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C581">
         <v>2.9239999999999999</v>
@@ -12713,7 +13759,7 @@
         <v>118</v>
       </c>
       <c r="B582" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="C582">
         <v>5.484</v>
@@ -12727,7 +13773,7 @@
         <v>118</v>
       </c>
       <c r="B583" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="C583">
         <v>5.8330000000000002</v>
@@ -12741,7 +13787,7 @@
         <v>118</v>
       </c>
       <c r="B584" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C584">
         <v>5.57</v>
@@ -12755,7 +13801,7 @@
         <v>118</v>
       </c>
       <c r="B585" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="C585">
         <v>2.0910000000000002</v>
@@ -12769,7 +13815,7 @@
         <v>118</v>
       </c>
       <c r="B586" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C586">
         <v>1.3939999999999999</v>
@@ -12783,7 +13829,7 @@
         <v>119</v>
       </c>
       <c r="B587" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C587">
         <v>0.187</v>
@@ -12797,7 +13843,7 @@
         <v>119</v>
       </c>
       <c r="B588" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C588">
         <v>0.27300000000000002</v>
@@ -12811,7 +13857,7 @@
         <v>119</v>
       </c>
       <c r="B589" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C589">
         <v>6.3E-2</v>
@@ -12825,7 +13871,7 @@
         <v>119</v>
       </c>
       <c r="B590" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C590">
         <v>0.4</v>
@@ -12839,7 +13885,7 @@
         <v>119</v>
       </c>
       <c r="B591" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C591">
         <v>0.251</v>
@@ -12853,7 +13899,7 @@
         <v>119</v>
       </c>
       <c r="B592" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C592">
         <v>0.26100000000000001</v>
@@ -12867,7 +13913,7 @@
         <v>120</v>
       </c>
       <c r="B593" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C593">
         <v>0.13400000000000001</v>
@@ -12881,7 +13927,7 @@
         <v>121</v>
       </c>
       <c r="B594" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C594">
         <v>0.55200000000000005</v>
@@ -12895,7 +13941,7 @@
         <v>121</v>
       </c>
       <c r="B595" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C595">
         <v>1.8380000000000001</v>
@@ -12909,7 +13955,7 @@
         <v>121</v>
       </c>
       <c r="B596" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C596">
         <v>0.12</v>
@@ -12923,7 +13969,7 @@
         <v>121</v>
       </c>
       <c r="B597" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C597">
         <v>8.1000000000000003E-2</v>
@@ -12937,7 +13983,7 @@
         <v>122</v>
       </c>
       <c r="B598" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C598">
         <v>0.191</v>
@@ -12951,7 +13997,7 @@
         <v>122</v>
       </c>
       <c r="B599" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C599">
         <v>0.311</v>
@@ -12965,7 +14011,7 @@
         <v>123</v>
       </c>
       <c r="B600" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C600">
         <v>0.21199999999999999</v>
@@ -12979,7 +14025,7 @@
         <v>124</v>
       </c>
       <c r="B601" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C601">
         <v>0.14899999999999999</v>
@@ -12993,7 +14039,7 @@
         <v>125</v>
       </c>
       <c r="B602" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="C602">
         <v>2.2749999999999999</v>
@@ -13007,7 +14053,7 @@
         <v>126</v>
       </c>
       <c r="B603" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C603">
         <v>4.3999999999999997E-2</v>
@@ -13021,7 +14067,7 @@
         <v>126</v>
       </c>
       <c r="B604" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C604">
         <v>0.05</v>
@@ -13035,7 +14081,7 @@
         <v>126</v>
       </c>
       <c r="B605" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C605">
         <v>4.9000000000000002E-2</v>
@@ -13049,7 +14095,7 @@
         <v>126</v>
       </c>
       <c r="B606" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C606">
         <v>5.8999999999999997E-2</v>
@@ -13063,7 +14109,7 @@
         <v>126</v>
       </c>
       <c r="B607" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C607">
         <v>6.0999999999999999E-2</v>
@@ -13077,7 +14123,7 @@
         <v>126</v>
       </c>
       <c r="B608" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C608">
         <v>5.5E-2</v>
@@ -13091,7 +14137,7 @@
         <v>127</v>
       </c>
       <c r="B609" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C609">
         <v>0.47599999999999998</v>
@@ -13105,7 +14151,7 @@
         <v>128</v>
       </c>
       <c r="B610" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="C610">
         <v>10</v>

--- a/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
+++ b/Temporal_distance_measures_project/mesures_soundtypes_updated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8d79da97edd0525e/Bureau/Ecoacoustic project internship/Acoustic-communities-process-internship/Temporal_distance_measures_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1159" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4F4AF266-A084-4C5A-941A-C22E9BC3F4FC}"/>
+  <xr:revisionPtr revIDLastSave="1192" documentId="14_{B4E40D56-3A89-422A-BC6F-2930158930E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{561DFE0E-5983-40C0-8946-DF37EA36F273}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="mesures_soundtypes" sheetId="1" r:id="rId1"/>
@@ -2804,8 +2804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I610"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A176" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E182" sqref="E182"/>
+    <sheetView tabSelected="1" topLeftCell="A323" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B348" sqref="B348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10279,7 +10279,19 @@
         <v>0.25900000000000001</v>
       </c>
       <c r="D333">
-        <v>15469</v>
+        <v>15094</v>
+      </c>
+      <c r="E333">
+        <v>14791</v>
+      </c>
+      <c r="F333">
+        <v>17531</v>
+      </c>
+      <c r="G333">
+        <v>0</v>
+      </c>
+      <c r="H333">
+        <v>1</v>
       </c>
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.3">
@@ -10295,6 +10307,18 @@
       <c r="D334">
         <v>15327</v>
       </c>
+      <c r="E334">
+        <v>13327</v>
+      </c>
+      <c r="F334">
+        <v>17938</v>
+      </c>
+      <c r="G334">
+        <v>0</v>
+      </c>
+      <c r="H334">
+        <v>1</v>
+      </c>
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A335">
@@ -10309,6 +10333,18 @@
       <c r="D335">
         <v>16757</v>
       </c>
+      <c r="E335">
+        <v>14309</v>
+      </c>
+      <c r="F335">
+        <v>16977</v>
+      </c>
+      <c r="G335">
+        <v>0</v>
+      </c>
+      <c r="H335">
+        <v>1</v>
+      </c>
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A336">
@@ -10321,10 +10357,22 @@
         <v>0.38300000000000001</v>
       </c>
       <c r="D336">
-        <v>3237</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3225</v>
+      </c>
+      <c r="E336">
+        <v>1772</v>
+      </c>
+      <c r="F336">
+        <v>5645</v>
+      </c>
+      <c r="G336">
+        <v>0</v>
+      </c>
+      <c r="H336">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>66</v>
       </c>
@@ -10335,10 +10383,22 @@
         <v>0.373</v>
       </c>
       <c r="D337">
-        <v>3089</v>
-      </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.3">
+        <v>3074</v>
+      </c>
+      <c r="E337">
+        <v>2371</v>
+      </c>
+      <c r="F337">
+        <v>5357</v>
+      </c>
+      <c r="G337">
+        <v>0</v>
+      </c>
+      <c r="H337">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>66</v>
       </c>
@@ -10352,7 +10412,7 @@
         <v>2712</v>
       </c>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>66</v>
       </c>
@@ -10366,7 +10426,7 @@
         <v>4785</v>
       </c>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>66</v>
       </c>
@@ -10377,10 +10437,22 @@
         <v>0.33</v>
       </c>
       <c r="D340">
-        <v>4817</v>
-      </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.3">
+        <v>4778</v>
+      </c>
+      <c r="E340">
+        <v>150</v>
+      </c>
+      <c r="F340">
+        <v>9688</v>
+      </c>
+      <c r="G340">
+        <v>0</v>
+      </c>
+      <c r="H340">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>66</v>
       </c>
@@ -10394,7 +10466,7 @@
         <v>4779</v>
       </c>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>67</v>
       </c>
@@ -10405,10 +10477,23 @@
         <v>0.95499999999999996</v>
       </c>
       <c r="D342">
-        <v>1411</v>
-      </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.3">
+        <v>1457</v>
+      </c>
+      <c r="E342">
+        <v>1246</v>
+      </c>
+      <c r="F342">
+        <v>1593</v>
+      </c>
+      <c r="G342">
+        <f>4/6.631</f>
+        <v>0.60322726587241737</v>
+      </c>
+      <c r="H342">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>68</v>
       </c>
@@ -10422,7 +10507,7 @@
         <v>8944</v>
       </c>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>68</v>
       </c>
@@ -10436,7 +10521,7 @@
         <v>7407</v>
       </c>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>68</v>
       </c>
@@ -10450,7 +10535,7 @@
         <v>11062</v>
       </c>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>68</v>
       </c>
@@ -10464,7 +10549,7 @@
         <v>10297</v>
       </c>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>68</v>
       </c>
@@ -10478,7 +10563,7 @@
         <v>11678</v>
       </c>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>68</v>
       </c>
@@ -10492,7 +10577,7 @@
         <v>14433</v>
       </c>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>69</v>
       </c>
@@ -10506,7 +10591,7 @@
         <v>2995</v>
       </c>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>69</v>
       </c>
@@ -10520,7 +10605,7 @@
         <v>3019</v>
       </c>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>69</v>
       </c>
@@ -10534,7 +10619,7 @@
         <v>3718</v>
       </c>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>69</v>
       </c>
